--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI6"/>
+  <dimension ref="A1:BI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2254,6 +2254,265 @@
         </is>
       </c>
       <c r="BI6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-12-02T15:21:14.415366Z</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>$813..59</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error: Page.goto: Timeout 30000ms exceeded.
+Call log:
+  - navigating to "https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P", waiting until "load"
+</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error: Page.goto: Timeout 30000ms exceeded.
+Call log:
+  - navigating to "https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J", waiting until "load"
+</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error: Page.goto: Timeout 30000ms exceeded.
+Call log:
+  - navigating to "https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6", waiting until "load"
+</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error: Page.goto: Timeout 30000ms exceeded.
+Call log:
+  - navigating to "https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC", waiting until "load"
+</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -2270,7 +2529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2908,6 +3167,220 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-02T09:31:44.698685Z</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>$813..79</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-12-02T15:21:14.415366Z</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>$813..59</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI7"/>
+  <dimension ref="A1:BI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2513,6 +2513,265 @@
         </is>
       </c>
       <c r="BI7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-12-03T03:52:56.744410Z</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>$1,350..53</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>$813..17</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error: Page.goto: Timeout 30000ms exceeded.
+Call log:
+  - navigating to "https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P", waiting until "load"
+</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error: Page.goto: Timeout 30000ms exceeded.
+Call log:
+  - navigating to "https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J", waiting until "load"
+</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error: Page.goto: Timeout 30000ms exceeded.
+Call log:
+  - navigating to "https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6", waiting until "load"
+</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">error: Page.goto: Timeout 30000ms exceeded.
+Call log:
+  - navigating to "https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC", waiting until "load"
+</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -2529,7 +2788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3381,6 +3640,93 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-12-03T03:52:56.744410Z</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>$1,350..53</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>$813..17</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI8"/>
+  <dimension ref="A1:BI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2772,6 +2772,313 @@
         </is>
       </c>
       <c r="BI8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-12-03T15:22:44.089091Z</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>$1,036..39</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>$813..11</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -2788,7 +3095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3727,6 +4034,133 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-12-03T15:22:44.089091Z</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>$1,036..39</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>$813..11</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI9"/>
+  <dimension ref="A1:BI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3079,6 +3079,313 @@
         </is>
       </c>
       <c r="BI9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-12-04T03:55:17.655022Z</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>$1,036..39</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>$1,219..99</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -3095,7 +3402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4161,6 +4468,133 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-12-04T03:55:17.655022Z</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>$1,036..39</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>$1,219..99</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Desktop\NewGit\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58953A98-5D03-472F-B0D3-810C0EA48183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E00FFD7-0BC9-45D3-A1B1-0B22101C37BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,7 +945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
@@ -2734,7 +2736,7 @@
   <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Desktop\NewGit\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F236A0-F501-4B5F-B69B-8D3C1EA9F7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195FF6A5-A498-4D44-AD7C-3EC52DB1A6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="211">
   <si>
     <t>run_timestamp</t>
   </si>
@@ -591,6 +591,81 @@
   </si>
   <si>
     <t>2025-12-08 03:20:14 UTC</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S11 512 GB</t>
+  </si>
+  <si>
+    <t>Galaxy Watch Ultra (2025)</t>
+  </si>
+  <si>
+    <t>Galaxy Watch8 Classic</t>
+  </si>
+  <si>
+    <t>Galaxy Buds3 Pro</t>
+  </si>
+  <si>
+    <t>$879.99 </t>
+  </si>
+  <si>
+    <t>$979.99</t>
+  </si>
+  <si>
+    <t>$879.99</t>
+  </si>
+  <si>
+    <t>‎SM-X730NZAYXAR</t>
+  </si>
+  <si>
+    <t>sm-x730nzaixar</t>
+  </si>
+  <si>
+    <t>SM-X730NZAIXAR</t>
+  </si>
+  <si>
+    <t>$649.99</t>
+  </si>
+  <si>
+    <t>$549.99</t>
+  </si>
+  <si>
+    <t>SM-L705UZBQXAA</t>
+  </si>
+  <si>
+    <t>sm-l705uzb1xaa</t>
+  </si>
+  <si>
+    <t>SM-L705UZB1XAA</t>
+  </si>
+  <si>
+    <t>$506.54 </t>
+  </si>
+  <si>
+    <t>$449.99</t>
+  </si>
+  <si>
+    <t>SM-L505UZKQXAA</t>
+  </si>
+  <si>
+    <t>sm-l505uzkaxaa</t>
+  </si>
+  <si>
+    <t>SM-L505UZKAXAA</t>
+  </si>
+  <si>
+    <t>$169.88 </t>
+  </si>
+  <si>
+    <t>$249.99</t>
+  </si>
+  <si>
+    <t>SM-R630NZWEXAR</t>
+  </si>
+  <si>
+    <t>sm-r630nzwaxar</t>
+  </si>
+  <si>
+    <t>SM-R630NZWAXAR</t>
   </si>
 </sst>
 </file>
@@ -2753,8 +2828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BA13" sqref="BA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2777,7 +2852,26 @@
     <col min="27" max="27" width="15.33203125" customWidth="1"/>
     <col min="28" max="28" width="26.5546875" customWidth="1"/>
     <col min="29" max="29" width="18.33203125" customWidth="1"/>
-    <col min="31" max="31" width="39.109375" customWidth="1"/>
+    <col min="31" max="31" width="24.44140625" customWidth="1"/>
+    <col min="34" max="34" width="16.5546875" customWidth="1"/>
+    <col min="35" max="35" width="18.21875" customWidth="1"/>
+    <col min="36" max="36" width="19.33203125" customWidth="1"/>
+    <col min="38" max="38" width="14.77734375" customWidth="1"/>
+    <col min="41" max="41" width="16.6640625" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" customWidth="1"/>
+    <col min="43" max="43" width="18.33203125" customWidth="1"/>
+    <col min="45" max="45" width="16.33203125" customWidth="1"/>
+    <col min="46" max="46" width="15.44140625" customWidth="1"/>
+    <col min="47" max="47" width="21.109375" customWidth="1"/>
+    <col min="48" max="48" width="15.77734375" customWidth="1"/>
+    <col min="49" max="49" width="16.109375" customWidth="1"/>
+    <col min="50" max="50" width="19.5546875" customWidth="1"/>
+    <col min="52" max="52" width="20" customWidth="1"/>
+    <col min="53" max="53" width="14" customWidth="1"/>
+    <col min="54" max="54" width="17.44140625" customWidth="1"/>
+    <col min="55" max="55" width="17.33203125" customWidth="1"/>
+    <col min="56" max="56" width="14.33203125" customWidth="1"/>
+    <col min="57" max="57" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68">
@@ -2815,6 +2909,38 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AL1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AS1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AZ1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="1"/>
@@ -2893,6 +3019,78 @@
         <v>153</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE2" s="1" t="s">
         <v>154</v>
       </c>
       <c r="BI2" s="1"/>
@@ -3894,7 +4092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:29">
+    <row r="17" spans="2:57">
       <c r="B17" t="s">
         <v>134</v>
       </c>
@@ -3971,7 +4169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="2:29">
+    <row r="18" spans="2:57">
       <c r="B18" t="s">
         <v>141</v>
       </c>
@@ -4048,7 +4246,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="2:29">
+    <row r="19" spans="2:57">
       <c r="B19" s="3" t="s">
         <v>180</v>
       </c>
@@ -4124,8 +4322,80 @@
       <c r="AC19" t="s">
         <v>78</v>
       </c>
+      <c r="AE19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>206</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="2:57">
       <c r="B20" s="3" t="s">
         <v>183</v>
       </c>
@@ -4201,8 +4471,80 @@
       <c r="AC20" t="s">
         <v>78</v>
       </c>
+      <c r="AE20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>206</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:57">
       <c r="B21" s="3" t="s">
         <v>184</v>
       </c>
@@ -4278,8 +4620,80 @@
       <c r="AC21" t="s">
         <v>78</v>
       </c>
+      <c r="AE21" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>206</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="22" spans="2:29">
+    <row r="22" spans="2:57">
       <c r="B22" s="3" t="s">
         <v>185</v>
       </c>
@@ -4355,20 +4769,92 @@
       <c r="AC22" t="s">
         <v>78</v>
       </c>
+      <c r="AE22" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>206</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="23" spans="2:29">
+    <row r="23" spans="2:57">
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:57">
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="2:29">
+    <row r="25" spans="2:57">
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="2:29">
+    <row r="26" spans="2:57">
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="2:29">
+    <row r="27" spans="2:57">
       <c r="W27" s="3"/>
     </row>
   </sheetData>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="converted" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ2"/>
+  <dimension ref="A1:DQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1630,6 +1631,948 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-12-09T03:58:24.718564+00:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>run_timestamp</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>amazon_1_price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>bestbuy_1_price</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>amazon_5_price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>amazon_1_model</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>bestbuy_1_model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>amazon_5_model</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>amazon_2_price</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>bestbuy_2_price</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>amazon_6_price</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>amazon_2_model</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>bestbuy_2_model</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>amazon_6_model</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>amazon_3_price</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>bestbuy_3_price</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>amazon_7_price</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>amazon_3_model</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>bestbuy_3_model</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>amazon_7_model</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>amazon_4_price</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>bestbuy_4_price</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>amazon_8_price</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>amazon_4_model</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>bestbuy_4_model</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>amazon_8_model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-12-08T15:26:08.694613+00:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>$1,169..99</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>$849..98</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-12-09T03:58:24.718564+00:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ3"/>
+  <dimension ref="A1:DQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2198,6 +2198,608 @@
         </is>
       </c>
       <c r="DQ3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-12-09T15:27:44.512853+00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>$1,169..63</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP4" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY4" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO4" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="DQ4" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -2214,7 +2816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2573,6 +3175,133 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-12-09T15:27:44.512853+00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>$1,169..63</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ4"/>
+  <dimension ref="A1:DQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2800,6 +2800,608 @@
         </is>
       </c>
       <c r="DQ4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-10T04:03:15.949572+00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>$1,169..64</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO5" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP5" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT5" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX5" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY5" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ5" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC5" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD5" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH5" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ5" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK5" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM5" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO5" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="DQ5" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -2816,7 +3418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3302,6 +3904,133 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-10T04:03:15.949572+00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>$1,169..64</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ5"/>
+  <dimension ref="A1:DQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3402,6 +3402,578 @@
         </is>
       </c>
       <c r="DQ5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-10T15:28:40.890967+00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>$1,169..31</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX6" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY6" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ6" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA6" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC6" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD6" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE6" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI6" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ6" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK6" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM6" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN6" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO6" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="DQ6" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -3418,7 +3990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4031,6 +4603,103 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-10T15:28:40.890967+00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>$1,169..31</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ6"/>
+  <dimension ref="A1:DQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3974,6 +3974,608 @@
         </is>
       </c>
       <c r="DQ6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-12-11T04:05:43.861838+00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>$1,169..20</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ7" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN7" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO7" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP7" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ7" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS7" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT7" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU7" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX7" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY7" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ7" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA7" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC7" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD7" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE7" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF7" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH7" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI7" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ7" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK7" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM7" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN7" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO7" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="DQ7" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -3990,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4700,6 +5302,133 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-12-11T04:05:43.861838+00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>$1,169..20</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ7"/>
+  <dimension ref="A1:DQ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4576,6 +4576,608 @@
         </is>
       </c>
       <c r="DQ7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:27:54.041954+00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>$1,169..18</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY8" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN8" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO8" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP8" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ8" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT8" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU8" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX8" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY8" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ8" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA8" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC8" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD8" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE8" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH8" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI8" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ8" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK8" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM8" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO8" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="DQ8" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -4592,7 +5194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5429,6 +6031,133 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-12-11T15:27:54.041954+00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>$1,169..18</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ8"/>
+  <dimension ref="A1:DQ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5178,6 +5178,608 @@
         </is>
       </c>
       <c r="DQ8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-12-12T04:04:41.531746+00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>$1,169..16</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY9" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ9" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE9" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN9" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO9" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP9" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ9" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS9" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT9" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU9" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX9" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY9" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ9" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA9" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC9" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD9" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE9" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF9" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH9" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI9" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ9" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK9" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM9" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN9" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO9" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="DQ9" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -5194,7 +5796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6158,6 +6760,133 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-12-12T04:04:41.531746+00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>$1,169..16</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ9"/>
+  <dimension ref="A1:DQ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5780,6 +5780,603 @@
         </is>
       </c>
       <c r="DQ9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-12-12T15:26:10.554124+00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>$873.99</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO10" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP10" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="CQ10" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT10" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU10" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY10" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="DA10" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD10" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE10" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="DF10" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI10" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ10" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK10" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN10" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO10" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DQ10" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -5796,7 +6393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6887,6 +7484,133 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-12-12T15:26:10.554124+00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>$873.99</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>$169..88</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ10"/>
+  <dimension ref="A1:DQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6377,6 +6377,603 @@
         </is>
       </c>
       <c r="DQ10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-12-13T03:56:41.523536+00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>$247..77</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>$873.99</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY11" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ11" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI11" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ11" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL11" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN11" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO11" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CQ11" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT11" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU11" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX11" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY11" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ11" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA11" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC11" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD11" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE11" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="DF11" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH11" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI11" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ11" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK11" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM11" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN11" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO11" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DQ11" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -6393,7 +6990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,6 +8208,133 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-12-13T03:56:41.523536+00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>$873.99</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>$247..77</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ11"/>
+  <dimension ref="A1:DQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6974,6 +6974,608 @@
         </is>
       </c>
       <c r="DQ11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-12-13T15:23:48.536363+00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>$247..77</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL12" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN12" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO12" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP12" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ12" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS12" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT12" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU12" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX12" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY12" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ12" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA12" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC12" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD12" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE12" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="DF12" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH12" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI12" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ12" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK12" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM12" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN12" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO12" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DQ12" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -6990,7 +7592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8335,6 +8937,133 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-12-13T15:23:48.536363+00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>$247..77</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ12"/>
+  <dimension ref="A1:DQ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7576,6 +7576,608 @@
         </is>
       </c>
       <c r="DQ12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-12-14T04:07:28.009220+00:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>$169..99</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW13" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ13" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="CB13" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE13" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF13" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG13" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI13" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ13" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK13" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL13" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN13" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO13" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP13" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ13" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS13" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT13" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU13" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV13" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX13" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY13" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ13" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA13" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC13" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD13" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE13" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="DF13" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH13" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI13" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ13" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK13" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM13" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN13" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO13" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DQ13" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -7592,7 +8194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9064,6 +9666,133 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-12-14T04:07:28.009220+00:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>$169..99</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ13"/>
+  <dimension ref="A1:DQ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8178,6 +8178,608 @@
         </is>
       </c>
       <c r="DQ13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-12-14T15:23:55.817816+00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>$199..99</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ14" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA14" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="CB14" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE14" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG14" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI14" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ14" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK14" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL14" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN14" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO14" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP14" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ14" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS14" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT14" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU14" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV14" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX14" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY14" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ14" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA14" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC14" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD14" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE14" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="DF14" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH14" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI14" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ14" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK14" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM14" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN14" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO14" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DQ14" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -8194,7 +8796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9793,6 +10395,133 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-12-14T15:23:55.817816+00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>$2,099..00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>$199..99</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ14"/>
+  <dimension ref="A1:DQ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8780,6 +8780,608 @@
         </is>
       </c>
       <c r="DQ14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-12-15T04:12:18.729412+00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>$199..99</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ15" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE15" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG15" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI15" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ15" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK15" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL15" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN15" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO15" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP15" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ15" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS15" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT15" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU15" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV15" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX15" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY15" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ15" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA15" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC15" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD15" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE15" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="DF15" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH15" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI15" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ15" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="DK15" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM15" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN15" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO15" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DQ15" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -8796,7 +9398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10522,6 +11124,133 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-12-15T04:12:18.729412+00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>$449..99</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>$199..99</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ15"/>
+  <dimension ref="A1:DQ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9382,6 +9382,583 @@
         </is>
       </c>
       <c r="DQ15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-12-15T15:29:21.022453+00:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>$501..35</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>$1,144.99</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY16" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ16" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB16" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE16" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF16" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI16" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ16" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK16" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL16" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN16" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO16" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP16" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ16" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS16" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT16" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU16" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV16" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX16" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY16" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ16" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA16" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC16" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD16" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE16" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF16" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH16" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI16" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ16" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK16" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM16" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN16" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO16" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ16" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -9398,7 +9975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11251,6 +11828,108 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-12-15T15:29:21.022453+00:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>$1,144.99</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>$501..35</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ16"/>
+  <dimension ref="A1:DQ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9959,6 +9959,603 @@
         </is>
       </c>
       <c r="DQ16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-12-16T04:05:51.835492+00:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>$1,144.99</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ17" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE17" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG17" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI17" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ17" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CL17" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN17" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO17" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP17" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ17" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS17" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT17" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU17" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX17" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY17" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ17" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA17" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC17" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD17" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE17" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF17" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH17" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ17" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK17" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM17" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN17" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO17" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ17" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -9975,7 +10572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11930,6 +12527,133 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-12-16T04:05:51.835492+00:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>$1,144.99</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ17"/>
+  <dimension ref="A1:DQ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10556,6 +10556,603 @@
         </is>
       </c>
       <c r="DQ17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-12-16T15:27:27.603514+00:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>$808..61</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ18" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="CB18" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE18" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF18" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG18" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI18" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ18" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK18" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL18" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN18" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO18" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP18" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ18" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS18" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT18" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU18" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV18" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX18" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY18" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ18" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA18" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC18" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD18" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DF18" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH18" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI18" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ18" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK18" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM18" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN18" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO18" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ18" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -10572,7 +11169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:BS18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10581,2076 +11178,4258 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>run_timestamp</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>amazon_1_price</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>samsung_1_price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>bestbuy_1_price</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>amazon_1_model</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>samsung_1_sku</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>bestbuy_1_model</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>amazon_2_price</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>samsung_2_price</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>bestbuy_2_price</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>amazon_2_model</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>samsung_2_sku</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>bestbuy_2_model</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>amazon_3_price</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>samsung_3_price</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>bestbuy_3_price</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>amazon_3_model</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>samsung_3_sku</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>bestbuy_3_model</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>amazon_4_price</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>samsung_4_price</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>bestbuy_4_price</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>amazon_4_model</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>samsung_4_sku</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>bestbuy_4_model</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
         <is>
           <t>amazon_5_price</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>amazon_1_model</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>bestbuy_1_model</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>samsung_5_price</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>bestbuy_5_price</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
         <is>
           <t>amazon_5_model</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>amazon_2_price</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>bestbuy_2_price</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>samsung_5_sku</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>bestbuy_5_model</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
         <is>
           <t>amazon_6_price</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>amazon_2_model</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>bestbuy_2_model</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>samsung_6_price</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>bestbuy_6_price</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
         <is>
           <t>amazon_6_model</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>amazon_3_price</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>bestbuy_3_price</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>samsung_6_sku</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>bestbuy_6_model</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
         <is>
           <t>amazon_7_price</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>amazon_3_model</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>bestbuy_3_model</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>samsung_7_price</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>bestbuy_7_price</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
         <is>
           <t>amazon_7_model</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>amazon_4_price</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>bestbuy_4_price</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>samsung_7_sku</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>bestbuy_7_model</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
         <is>
           <t>amazon_8_price</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>amazon_4_model</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>bestbuy_4_model</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>samsung_8_price</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>bestbuy_8_price</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
         <is>
           <t>amazon_8_model</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>samsung_8_sku</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>bestbuy_8_model</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>2025-12-08T15:26:08.694613+00:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$2,099..00</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>$1,169..99</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>$849..98</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>$1,169..99</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
         <is>
           <t>$549..99</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>$952..05</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>$849..98</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>$969.99</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
         <is>
           <t>$169..88</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>2025-12-09T03:58:24.718564+00:00</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>$2,099..00</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>$952..05</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>$969.99</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
         <is>
           <t>$169..88</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>2025-12-09T15:27:44.512853+00:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>$2,099..00</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>$1,169..63</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>$1,169..63</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
         <is>
           <t>$549..99</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>$952..05</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>$969.99</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
         <is>
           <t>$169..88</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>2025-12-10T04:03:15.949572+00:00</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>$2,099..00</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>$1,169..64</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>$1,169..64</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
         <is>
           <t>$549..99</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>$952..05</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>$969.99</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
         <is>
           <t>$169..88</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>2025-12-10T15:28:40.890967+00:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>$2,099..00</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>$1,169..31</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>$952..05</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>$1,169..31</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>$952..05</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>$969.99</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>2025-12-11T04:05:43.861838+00:00</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>$2,099..00</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>$1,169..20</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>$1,169..20</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
         <is>
           <t>$549..99</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>$929..99</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>$969.99</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
         <is>
           <t>$169..88</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>2025-12-11T15:27:54.041954+00:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>$2,099..00</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>$1,169..18</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>$1,169..18</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
         <is>
           <t>$549..99</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>$929..99</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>$969.99</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
         <is>
           <t>$169..88</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>2025-12-12T04:04:41.531746+00:00</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>$2,119..99</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>$1,169..16</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>$1,169..16</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
         <is>
           <t>$549..99</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>$929..99</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>$919.99</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
         <is>
           <t>$169..88</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>2025-12-12T15:26:10.554124+00:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>$2,099..00</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>$969.99</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>$873.99</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>$1,199..95</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
         <is>
           <t>$549..99</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>$948..07</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>$873.99</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
         <is>
           <t>$169..88</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>2025-12-13T03:56:41.523536+00:00</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>$2,119..99</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>$873.99</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>$1,199..95</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
         <is>
           <t>$529..99</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>$948..07</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>$873.99</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
         <is>
           <t>$247..77</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2025-12-13T15:23:48.536363+00:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>$2,099..00</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>$1,199..95</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
         <is>
           <t>$529..99</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>$929..99</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>$919.99</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
         <is>
           <t>$247..77</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>2025-12-14T04:07:28.009220+00:00</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>$2,099..00</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>$1,199..95</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
         <is>
           <t>$529..99</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>$948..07</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>$919.99</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
         <is>
           <t>$169..99</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2025-12-14T15:23:55.817816+00:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>$2,099..00</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>$1,199..95</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
         <is>
           <t>$529..99</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>$929..99</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>$919.99</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
         <is>
           <t>$199..99</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2025-12-15T04:12:18.729412+00:00</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>$2,119..99</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$2,119.99</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
         <is>
           <t>$879..99</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>$1,199..95</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>$1,219.99</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
         <is>
           <t>$529..99</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>$429.99</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>$529.99</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>$929..99</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
         <is>
           <t>$449..99</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>$919.99</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
         <is>
           <t>$199..99</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>2025-12-15T15:29:21.022453+00:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>$1,719..99</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$1,719.99</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$1,144.99</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
         <is>
           <t>$829..99</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>SM-F966UDBEXAA</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>$1,144.99</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
         <is>
           <t>$529..99</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>$929..99</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
         <is>
           <t>$501..35</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>$919.99</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
         <is>
           <t>$159..99</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>2025-12-16T04:05:51.835492+00:00</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>$1,719..99</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$1,719.99</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$1,144.99</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>$808..99</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
         <is>
           <t>$829..99</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-12-16T15:27:27.603514+00:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>SM-F966UDBEXAA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>SM-F966UDBEXAA</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>$808..61</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
         <is>
           <t>‎SM-X730NZAYXAR</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>$1,199..95</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>$1,144.99</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
         <is>
           <t>$529..99</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>SM-S938UZKEXAA</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
         <is>
           <t>SM-L705UZBQXAA</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>$929..99</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>$1,019.99</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
         <is>
           <t>$399..99</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>SM-F766UZKEXAA</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
         <is>
           <t>SM-L505UZKQXAA</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>$808..99</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>$919.99</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
         <is>
           <t>$159..99</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>SM-S937UZKEXAA</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
         <is>
           <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
         </is>
       </c>
     </row>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ18"/>
+  <dimension ref="A1:DQ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11153,6 +11153,608 @@
         </is>
       </c>
       <c r="DQ18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-12-17T04:02:25.313333+00:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>$808..14</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>$128..89</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV19" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BW19" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY19" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ19" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA19" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="CB19" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE19" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF19" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG19" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI19" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ19" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK19" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL19" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN19" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO19" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP19" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ19" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS19" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT19" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU19" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV19" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX19" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY19" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ19" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA19" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC19" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD19" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE19" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF19" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH19" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI19" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ19" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK19" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM19" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN19" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO19" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ19" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -11169,7 +11771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS18"/>
+  <dimension ref="A1:BS19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15433,6 +16035,248 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-17T04:02:25.313333+00:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>$808..14</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>$128..89</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ19"/>
+  <dimension ref="A1:HC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,6 +1028,456 @@
           <t>samsung_8_status</t>
         </is>
       </c>
+      <c r="DR1" t="inlineStr">
+        <is>
+          <t>amazon_9_url</t>
+        </is>
+      </c>
+      <c r="DS1" t="inlineStr">
+        <is>
+          <t>amazon_9_file</t>
+        </is>
+      </c>
+      <c r="DT1" t="inlineStr">
+        <is>
+          <t>amazon_9_price</t>
+        </is>
+      </c>
+      <c r="DU1" t="inlineStr">
+        <is>
+          <t>amazon_9_model</t>
+        </is>
+      </c>
+      <c r="DV1" t="inlineStr">
+        <is>
+          <t>amazon_9_status</t>
+        </is>
+      </c>
+      <c r="DW1" t="inlineStr">
+        <is>
+          <t>amazon_10_url</t>
+        </is>
+      </c>
+      <c r="DX1" t="inlineStr">
+        <is>
+          <t>amazon_10_file</t>
+        </is>
+      </c>
+      <c r="DY1" t="inlineStr">
+        <is>
+          <t>amazon_10_price</t>
+        </is>
+      </c>
+      <c r="DZ1" t="inlineStr">
+        <is>
+          <t>amazon_10_model</t>
+        </is>
+      </c>
+      <c r="EA1" t="inlineStr">
+        <is>
+          <t>amazon_10_status</t>
+        </is>
+      </c>
+      <c r="EB1" t="inlineStr">
+        <is>
+          <t>amazon_11_url</t>
+        </is>
+      </c>
+      <c r="EC1" t="inlineStr">
+        <is>
+          <t>amazon_11_file</t>
+        </is>
+      </c>
+      <c r="ED1" t="inlineStr">
+        <is>
+          <t>amazon_11_price</t>
+        </is>
+      </c>
+      <c r="EE1" t="inlineStr">
+        <is>
+          <t>amazon_11_model</t>
+        </is>
+      </c>
+      <c r="EF1" t="inlineStr">
+        <is>
+          <t>amazon_11_status</t>
+        </is>
+      </c>
+      <c r="EG1" t="inlineStr">
+        <is>
+          <t>amazon_12_url</t>
+        </is>
+      </c>
+      <c r="EH1" t="inlineStr">
+        <is>
+          <t>amazon_12_file</t>
+        </is>
+      </c>
+      <c r="EI1" t="inlineStr">
+        <is>
+          <t>amazon_12_price</t>
+        </is>
+      </c>
+      <c r="EJ1" t="inlineStr">
+        <is>
+          <t>amazon_12_model</t>
+        </is>
+      </c>
+      <c r="EK1" t="inlineStr">
+        <is>
+          <t>amazon_12_status</t>
+        </is>
+      </c>
+      <c r="EL1" t="inlineStr">
+        <is>
+          <t>amazon_13_url</t>
+        </is>
+      </c>
+      <c r="EM1" t="inlineStr">
+        <is>
+          <t>amazon_13_file</t>
+        </is>
+      </c>
+      <c r="EN1" t="inlineStr">
+        <is>
+          <t>amazon_13_price</t>
+        </is>
+      </c>
+      <c r="EO1" t="inlineStr">
+        <is>
+          <t>amazon_13_model</t>
+        </is>
+      </c>
+      <c r="EP1" t="inlineStr">
+        <is>
+          <t>amazon_13_status</t>
+        </is>
+      </c>
+      <c r="EQ1" t="inlineStr">
+        <is>
+          <t>amazon_14_url</t>
+        </is>
+      </c>
+      <c r="ER1" t="inlineStr">
+        <is>
+          <t>amazon_14_file</t>
+        </is>
+      </c>
+      <c r="ES1" t="inlineStr">
+        <is>
+          <t>amazon_14_price</t>
+        </is>
+      </c>
+      <c r="ET1" t="inlineStr">
+        <is>
+          <t>amazon_14_model</t>
+        </is>
+      </c>
+      <c r="EU1" t="inlineStr">
+        <is>
+          <t>amazon_14_status</t>
+        </is>
+      </c>
+      <c r="EV1" t="inlineStr">
+        <is>
+          <t>bestbuy_9_url</t>
+        </is>
+      </c>
+      <c r="EW1" t="inlineStr">
+        <is>
+          <t>bestbuy_9_file</t>
+        </is>
+      </c>
+      <c r="EX1" t="inlineStr">
+        <is>
+          <t>bestbuy_9_price</t>
+        </is>
+      </c>
+      <c r="EY1" t="inlineStr">
+        <is>
+          <t>bestbuy_9_model</t>
+        </is>
+      </c>
+      <c r="EZ1" t="inlineStr">
+        <is>
+          <t>bestbuy_9_status</t>
+        </is>
+      </c>
+      <c r="FA1" t="inlineStr">
+        <is>
+          <t>bestbuy_10_url</t>
+        </is>
+      </c>
+      <c r="FB1" t="inlineStr">
+        <is>
+          <t>bestbuy_10_file</t>
+        </is>
+      </c>
+      <c r="FC1" t="inlineStr">
+        <is>
+          <t>bestbuy_10_price</t>
+        </is>
+      </c>
+      <c r="FD1" t="inlineStr">
+        <is>
+          <t>bestbuy_10_model</t>
+        </is>
+      </c>
+      <c r="FE1" t="inlineStr">
+        <is>
+          <t>bestbuy_10_status</t>
+        </is>
+      </c>
+      <c r="FF1" t="inlineStr">
+        <is>
+          <t>bestbuy_11_url</t>
+        </is>
+      </c>
+      <c r="FG1" t="inlineStr">
+        <is>
+          <t>bestbuy_11_file</t>
+        </is>
+      </c>
+      <c r="FH1" t="inlineStr">
+        <is>
+          <t>bestbuy_11_price</t>
+        </is>
+      </c>
+      <c r="FI1" t="inlineStr">
+        <is>
+          <t>bestbuy_11_model</t>
+        </is>
+      </c>
+      <c r="FJ1" t="inlineStr">
+        <is>
+          <t>bestbuy_11_status</t>
+        </is>
+      </c>
+      <c r="FK1" t="inlineStr">
+        <is>
+          <t>bestbuy_12_url</t>
+        </is>
+      </c>
+      <c r="FL1" t="inlineStr">
+        <is>
+          <t>bestbuy_12_file</t>
+        </is>
+      </c>
+      <c r="FM1" t="inlineStr">
+        <is>
+          <t>bestbuy_12_price</t>
+        </is>
+      </c>
+      <c r="FN1" t="inlineStr">
+        <is>
+          <t>bestbuy_12_model</t>
+        </is>
+      </c>
+      <c r="FO1" t="inlineStr">
+        <is>
+          <t>bestbuy_12_status</t>
+        </is>
+      </c>
+      <c r="FP1" t="inlineStr">
+        <is>
+          <t>bestbuy_13_url</t>
+        </is>
+      </c>
+      <c r="FQ1" t="inlineStr">
+        <is>
+          <t>bestbuy_13_file</t>
+        </is>
+      </c>
+      <c r="FR1" t="inlineStr">
+        <is>
+          <t>bestbuy_13_price</t>
+        </is>
+      </c>
+      <c r="FS1" t="inlineStr">
+        <is>
+          <t>bestbuy_13_model</t>
+        </is>
+      </c>
+      <c r="FT1" t="inlineStr">
+        <is>
+          <t>bestbuy_13_status</t>
+        </is>
+      </c>
+      <c r="FU1" t="inlineStr">
+        <is>
+          <t>bestbuy_14_url</t>
+        </is>
+      </c>
+      <c r="FV1" t="inlineStr">
+        <is>
+          <t>bestbuy_14_file</t>
+        </is>
+      </c>
+      <c r="FW1" t="inlineStr">
+        <is>
+          <t>bestbuy_14_price</t>
+        </is>
+      </c>
+      <c r="FX1" t="inlineStr">
+        <is>
+          <t>bestbuy_14_model</t>
+        </is>
+      </c>
+      <c r="FY1" t="inlineStr">
+        <is>
+          <t>bestbuy_14_status</t>
+        </is>
+      </c>
+      <c r="FZ1" t="inlineStr">
+        <is>
+          <t>samsung_9_url</t>
+        </is>
+      </c>
+      <c r="GA1" t="inlineStr">
+        <is>
+          <t>samsung_9_file</t>
+        </is>
+      </c>
+      <c r="GB1" t="inlineStr">
+        <is>
+          <t>samsung_9_price</t>
+        </is>
+      </c>
+      <c r="GC1" t="inlineStr">
+        <is>
+          <t>samsung_9_sku</t>
+        </is>
+      </c>
+      <c r="GD1" t="inlineStr">
+        <is>
+          <t>samsung_9_status</t>
+        </is>
+      </c>
+      <c r="GE1" t="inlineStr">
+        <is>
+          <t>samsung_10_url</t>
+        </is>
+      </c>
+      <c r="GF1" t="inlineStr">
+        <is>
+          <t>samsung_10_file</t>
+        </is>
+      </c>
+      <c r="GG1" t="inlineStr">
+        <is>
+          <t>samsung_10_price</t>
+        </is>
+      </c>
+      <c r="GH1" t="inlineStr">
+        <is>
+          <t>samsung_10_sku</t>
+        </is>
+      </c>
+      <c r="GI1" t="inlineStr">
+        <is>
+          <t>samsung_10_status</t>
+        </is>
+      </c>
+      <c r="GJ1" t="inlineStr">
+        <is>
+          <t>samsung_11_url</t>
+        </is>
+      </c>
+      <c r="GK1" t="inlineStr">
+        <is>
+          <t>samsung_11_file</t>
+        </is>
+      </c>
+      <c r="GL1" t="inlineStr">
+        <is>
+          <t>samsung_11_price</t>
+        </is>
+      </c>
+      <c r="GM1" t="inlineStr">
+        <is>
+          <t>samsung_11_sku</t>
+        </is>
+      </c>
+      <c r="GN1" t="inlineStr">
+        <is>
+          <t>samsung_11_status</t>
+        </is>
+      </c>
+      <c r="GO1" t="inlineStr">
+        <is>
+          <t>samsung_12_url</t>
+        </is>
+      </c>
+      <c r="GP1" t="inlineStr">
+        <is>
+          <t>samsung_12_file</t>
+        </is>
+      </c>
+      <c r="GQ1" t="inlineStr">
+        <is>
+          <t>samsung_12_price</t>
+        </is>
+      </c>
+      <c r="GR1" t="inlineStr">
+        <is>
+          <t>samsung_12_sku</t>
+        </is>
+      </c>
+      <c r="GS1" t="inlineStr">
+        <is>
+          <t>samsung_12_status</t>
+        </is>
+      </c>
+      <c r="GT1" t="inlineStr">
+        <is>
+          <t>samsung_13_url</t>
+        </is>
+      </c>
+      <c r="GU1" t="inlineStr">
+        <is>
+          <t>samsung_13_file</t>
+        </is>
+      </c>
+      <c r="GV1" t="inlineStr">
+        <is>
+          <t>samsung_13_price</t>
+        </is>
+      </c>
+      <c r="GW1" t="inlineStr">
+        <is>
+          <t>samsung_13_sku</t>
+        </is>
+      </c>
+      <c r="GX1" t="inlineStr">
+        <is>
+          <t>samsung_13_status</t>
+        </is>
+      </c>
+      <c r="GY1" t="inlineStr">
+        <is>
+          <t>samsung_14_url</t>
+        </is>
+      </c>
+      <c r="GZ1" t="inlineStr">
+        <is>
+          <t>samsung_14_file</t>
+        </is>
+      </c>
+      <c r="HA1" t="inlineStr">
+        <is>
+          <t>samsung_14_price</t>
+        </is>
+      </c>
+      <c r="HB1" t="inlineStr">
+        <is>
+          <t>samsung_14_sku</t>
+        </is>
+      </c>
+      <c r="HC1" t="inlineStr">
+        <is>
+          <t>samsung_14_status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11755,6 +12205,1058 @@
         </is>
       </c>
       <c r="DQ19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-12-17T06:45:12.367898-05:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>$807..88</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>$129..99</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV20" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG20" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK20" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL20" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP20" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ20" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU20" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV20" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ20" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA20" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE20" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF20" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ20" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK20" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO20" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT20" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU20" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY20" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ20" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED20" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE20" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI20" t="inlineStr">
+        <is>
+          <t>$1,849..99</t>
+        </is>
+      </c>
+      <c r="EJ20" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN20" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="EO20" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES20" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET20" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX20" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY20" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC20" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD20" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH20" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI20" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM20" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN20" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR20" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS20" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU20" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV20" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW20" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX20" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB20" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC20" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG20" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH20" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL20" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM20" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ20" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR20" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV20" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW20" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ20" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA20" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB20" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC20" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -11771,7 +13273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS19"/>
+  <dimension ref="A1:BS20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16277,6 +17779,248 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-17T06:45:12.367898-05:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>$807..88</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>$129..99</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC20"/>
+  <dimension ref="A1:HC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13257,6 +13257,1058 @@
         </is>
       </c>
       <c r="HC20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-12-17T18:44:18.992704-05:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>$1,197..92</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>$807..45</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>$129..99</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB21" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF21" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG21" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK21" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL21" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP21" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ21" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU21" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV21" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ21" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA21" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE21" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF21" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ21" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK21" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO21" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT21" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU21" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY21" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ21" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED21" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE21" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI21" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ21" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN21" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="EO21" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES21" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET21" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX21" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY21" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC21" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD21" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH21" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI21" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM21" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN21" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR21" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS21" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU21" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV21" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW21" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX21" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB21" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC21" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG21" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH21" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL21" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM21" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ21" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR21" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV21" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW21" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ21" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA21" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB21" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC21" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -13273,7 +14325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS20"/>
+  <dimension ref="A1:BS21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18021,6 +19073,248 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-17T18:44:18.992704-05:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>$1,197..92</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>$948..07</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>$807..45</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>$529..99</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>$129..99</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC21"/>
+  <dimension ref="A1:HC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14309,6 +14309,943 @@
         </is>
       </c>
       <c r="HC21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-12-18T06:42:26.101103-05:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>$807..00</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK22" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL22" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP22" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ22" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU22" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ22" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA22" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE22" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF22" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ22" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK22" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO22" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DV22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EA22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED22" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EF22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EK22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EP22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EU22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX22" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY22" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC22" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD22" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH22" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI22" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM22" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN22" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR22" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS22" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU22" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV22" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW22" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX22" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB22" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC22" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG22" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH22" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL22" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM22" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ22" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR22" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV22" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW22" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY22" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ22" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA22" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB22" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC22" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -14325,7 +15262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS21"/>
+  <dimension ref="A1:DU22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14579,6 +15516,186 @@
           <t>bestbuy_8_model</t>
         </is>
       </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>amazon_9_price</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>samsung_9_price</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>bestbuy_9_price</t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>amazon_9_model</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>samsung_9_sku</t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>bestbuy_9_model</t>
+        </is>
+      </c>
+      <c r="CF1" t="inlineStr">
+        <is>
+          <t>amazon_10_price</t>
+        </is>
+      </c>
+      <c r="CG1" t="inlineStr">
+        <is>
+          <t>samsung_10_price</t>
+        </is>
+      </c>
+      <c r="CH1" t="inlineStr">
+        <is>
+          <t>bestbuy_10_price</t>
+        </is>
+      </c>
+      <c r="CI1" t="inlineStr">
+        <is>
+          <t>amazon_10_model</t>
+        </is>
+      </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>samsung_10_sku</t>
+        </is>
+      </c>
+      <c r="CK1" t="inlineStr">
+        <is>
+          <t>bestbuy_10_model</t>
+        </is>
+      </c>
+      <c r="CO1" t="inlineStr">
+        <is>
+          <t>amazon_11_price</t>
+        </is>
+      </c>
+      <c r="CP1" t="inlineStr">
+        <is>
+          <t>samsung_11_price</t>
+        </is>
+      </c>
+      <c r="CQ1" t="inlineStr">
+        <is>
+          <t>bestbuy_11_price</t>
+        </is>
+      </c>
+      <c r="CR1" t="inlineStr">
+        <is>
+          <t>amazon_11_model</t>
+        </is>
+      </c>
+      <c r="CS1" t="inlineStr">
+        <is>
+          <t>samsung_11_sku</t>
+        </is>
+      </c>
+      <c r="CT1" t="inlineStr">
+        <is>
+          <t>bestbuy_11_model</t>
+        </is>
+      </c>
+      <c r="CX1" t="inlineStr">
+        <is>
+          <t>amazon_12_price</t>
+        </is>
+      </c>
+      <c r="CY1" t="inlineStr">
+        <is>
+          <t>samsung_12_price</t>
+        </is>
+      </c>
+      <c r="CZ1" t="inlineStr">
+        <is>
+          <t>bestbuy_12_price</t>
+        </is>
+      </c>
+      <c r="DA1" t="inlineStr">
+        <is>
+          <t>amazon_13_file</t>
+        </is>
+      </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>samsung_12_sku</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>bestbuy_12_model</t>
+        </is>
+      </c>
+      <c r="DG1" t="inlineStr">
+        <is>
+          <t>amazon_13_price</t>
+        </is>
+      </c>
+      <c r="DH1" t="inlineStr">
+        <is>
+          <t>samsung_13_price</t>
+        </is>
+      </c>
+      <c r="DI1" t="inlineStr">
+        <is>
+          <t>bestbuy_13_price</t>
+        </is>
+      </c>
+      <c r="DJ1" t="inlineStr">
+        <is>
+          <t>amazon_13_model</t>
+        </is>
+      </c>
+      <c r="DK1" t="inlineStr">
+        <is>
+          <t>samsung_13_sku</t>
+        </is>
+      </c>
+      <c r="DL1" t="inlineStr">
+        <is>
+          <t>bestbuy_13_model</t>
+        </is>
+      </c>
+      <c r="DP1" t="inlineStr">
+        <is>
+          <t>amazon_14_price</t>
+        </is>
+      </c>
+      <c r="DQ1" t="inlineStr">
+        <is>
+          <t>samsung_14_price</t>
+        </is>
+      </c>
+      <c r="DR1" t="inlineStr">
+        <is>
+          <t>bestbuy_14_price</t>
+        </is>
+      </c>
+      <c r="DS1" t="inlineStr">
+        <is>
+          <t>amazon_14_model</t>
+        </is>
+      </c>
+      <c r="DT1" t="inlineStr">
+        <is>
+          <t>samsung_14_sku</t>
+        </is>
+      </c>
+      <c r="DU1" t="inlineStr">
+        <is>
+          <t>bestbuy_14_model</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="inlineStr">
@@ -19072,6 +20189,186 @@
           <t>SM-R630NZWAXAR</t>
         </is>
       </c>
+      <c r="BW20" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ20" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG20" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH20" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI20" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ20" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK20" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO20" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP20" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ20" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR20" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS20" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT20" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX20" t="inlineStr">
+        <is>
+          <t>$1,849..99</t>
+        </is>
+      </c>
+      <c r="CY20" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ20" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA20" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DB20" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC20" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG20" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DH20" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI20" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ20" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK20" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL20" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP20" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ20" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR20" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS20" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT20" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU20" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
@@ -19312,6 +20609,498 @@
       <c r="BS21" t="inlineStr">
         <is>
           <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ21" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB21" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF21" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG21" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH21" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI21" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ21" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK21" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO21" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP21" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ21" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR21" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS21" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT21" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX21" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY21" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ21" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA21" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DB21" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC21" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG21" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DH21" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI21" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ21" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK21" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL21" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP21" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ21" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR21" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS21" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT21" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU21" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-18T06:42:26.101103-05:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>$807..00</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH22" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CJ22" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK22" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO22" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP22" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ22" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CS22" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT22" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CY22" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ22" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA22" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DB22" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC22" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DH22" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI22" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DK22" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL22" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DQ22" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR22" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DT22" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU22" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
         </is>
       </c>
     </row>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC22"/>
+  <dimension ref="A1:HC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15246,6 +15246,1058 @@
         </is>
       </c>
       <c r="HC22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-12-18T18:44:45.115604-05:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>$1,197..91</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>$806..65</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>$119..99</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV23" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BW23" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB23" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF23" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG23" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK23" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL23" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP23" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ23" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU23" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV23" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ23" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA23" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE23" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF23" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ23" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK23" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO23" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT23" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU23" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY23" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ23" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED23" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE23" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI23" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ23" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN23" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="EO23" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES23" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET23" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX23" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY23" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC23" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD23" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH23" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI23" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM23" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN23" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR23" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS23" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU23" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV23" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW23" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX23" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB23" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC23" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG23" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH23" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL23" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM23" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ23" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR23" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV23" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW23" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY23" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ23" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA23" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB23" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC23" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -15262,7 +16314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU22"/>
+  <dimension ref="A1:DU23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21104,6 +22156,428 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-18T18:44:45.115604-05:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>$1,197..91</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>$806..65</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>$119..99</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW23" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX23" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY23" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ23" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB23" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF23" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG23" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH23" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI23" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ23" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK23" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO23" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP23" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ23" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR23" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS23" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT23" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX23" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY23" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ23" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA23" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DB23" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC23" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG23" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DH23" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI23" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ23" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK23" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL23" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP23" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ23" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR23" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS23" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT23" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU23" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC23"/>
+  <dimension ref="A1:HC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16298,6 +16298,1058 @@
         </is>
       </c>
       <c r="HC23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-12-19T06:42:13.739197-05:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>$806..64</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>$968.99</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM24" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV24" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BW24" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA24" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB24" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF24" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG24" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK24" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL24" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP24" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ24" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU24" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV24" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ24" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA24" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE24" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF24" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ24" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK24" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO24" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT24" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU24" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY24" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ24" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED24" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE24" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI24" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ24" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN24" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="EO24" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES24" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET24" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX24" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY24" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC24" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD24" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH24" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI24" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM24" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN24" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR24" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS24" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU24" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV24" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW24" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX24" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB24" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC24" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG24" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH24" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL24" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM24" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ24" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR24" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV24" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW24" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY24" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ24" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA24" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB24" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC24" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -16314,7 +17366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU23"/>
+  <dimension ref="A1:DU24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22578,6 +23630,428 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-19T06:42:13.739197-05:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>$929..99</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>$968.99</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>$806..64</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW24" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX24" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY24" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ24" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA24" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB24" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF24" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG24" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH24" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI24" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ24" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK24" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO24" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP24" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ24" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR24" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS24" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT24" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX24" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY24" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ24" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA24" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DB24" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC24" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG24" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DH24" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI24" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ24" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK24" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL24" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP24" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ24" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR24" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS24" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT24" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU24" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC24"/>
+  <dimension ref="A1:HC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17350,6 +17350,1058 @@
         </is>
       </c>
       <c r="HC24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-12-19T18:43:50.621810-05:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$968..99</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>$806..53</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>$119..99</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>$968.99</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV25" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA25" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB25" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF25" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG25" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK25" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL25" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP25" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ25" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU25" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV25" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ25" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA25" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE25" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF25" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ25" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK25" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO25" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT25" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU25" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY25" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ25" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED25" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE25" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI25" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ25" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN25" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="EO25" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES25" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET25" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX25" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY25" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC25" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD25" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH25" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI25" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM25" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN25" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR25" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS25" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU25" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV25" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW25" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX25" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB25" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC25" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG25" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH25" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL25" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM25" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ25" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR25" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV25" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW25" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY25" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ25" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA25" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB25" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC25" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -17366,7 +18418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU24"/>
+  <dimension ref="A1:DU25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24052,6 +25104,428 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-19T18:43:50.621810-05:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>$968..99</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>$968.99</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>$806..53</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>$119..99</t>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX25" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY25" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ25" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA25" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB25" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF25" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG25" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH25" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI25" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ25" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK25" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO25" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP25" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ25" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR25" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS25" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT25" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX25" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY25" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ25" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA25" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DB25" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC25" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG25" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DH25" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI25" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ25" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK25" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL25" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP25" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ25" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR25" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS25" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT25" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU25" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC25"/>
+  <dimension ref="A1:HC26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18402,6 +18402,1058 @@
         </is>
       </c>
       <c r="HC25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-12-20T06:39:51.405755-05:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$968..99</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>$806..10</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>$127..64</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV26" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BW26" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA26" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB26" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF26" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG26" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK26" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL26" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP26" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ26" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU26" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV26" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ26" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA26" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE26" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF26" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ26" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK26" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO26" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT26" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU26" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY26" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ26" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED26" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE26" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI26" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ26" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN26" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="EO26" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES26" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET26" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX26" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY26" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC26" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD26" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH26" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI26" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM26" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN26" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR26" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS26" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU26" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV26" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW26" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX26" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB26" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC26" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG26" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH26" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL26" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM26" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ26" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR26" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV26" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW26" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ26" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA26" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB26" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC26" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -18418,7 +19470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU25"/>
+  <dimension ref="A1:DU26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25526,6 +26578,428 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-12-20T06:39:51.405755-05:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>$968..99</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>$806..10</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>$127..64</t>
+        </is>
+      </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW26" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX26" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY26" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ26" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA26" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB26" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF26" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG26" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH26" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI26" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ26" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK26" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO26" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP26" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ26" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR26" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS26" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT26" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX26" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY26" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ26" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA26" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DB26" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC26" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG26" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DH26" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI26" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ26" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK26" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL26" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP26" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ26" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR26" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS26" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT26" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU26" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC26"/>
+  <dimension ref="A1:HC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19454,6 +19454,1058 @@
         </is>
       </c>
       <c r="HC26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-12-20T18:42:44.195408-05:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>$1,198..94</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$968..99</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>$805..68</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ27" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV27" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BW27" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA27" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB27" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF27" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG27" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK27" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL27" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP27" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ27" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU27" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV27" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ27" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA27" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE27" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF27" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ27" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK27" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO27" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT27" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU27" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY27" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ27" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED27" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE27" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI27" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ27" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN27" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="EO27" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES27" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET27" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX27" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY27" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC27" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD27" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH27" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI27" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM27" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN27" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR27" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS27" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU27" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV27" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW27" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX27" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB27" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC27" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG27" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH27" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL27" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM27" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ27" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR27" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV27" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW27" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ27" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA27" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB27" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC27" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -19470,7 +20522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU26"/>
+  <dimension ref="A1:DU27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27000,6 +28052,428 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-20T18:42:44.195408-05:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>$1,198..94</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>$968..99</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>$805..68</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI27" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ27" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ27" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW27" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX27" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY27" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ27" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA27" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB27" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF27" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG27" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH27" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI27" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ27" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK27" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO27" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP27" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ27" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR27" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS27" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT27" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX27" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY27" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ27" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA27" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DB27" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC27" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG27" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DH27" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI27" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ27" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK27" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL27" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP27" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ27" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR27" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS27" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT27" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU27" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC27"/>
+  <dimension ref="A1:HC28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20506,6 +20506,1058 @@
         </is>
       </c>
       <c r="HC27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-12-21T06:40:19.054117-05:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$968..99</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>$805..15</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>$869.99</t>
+        </is>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV28" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BW28" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA28" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB28" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF28" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG28" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK28" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL28" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP28" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ28" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU28" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV28" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ28" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA28" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE28" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF28" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ28" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK28" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO28" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT28" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU28" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY28" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ28" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED28" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE28" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI28" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ28" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN28" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="EO28" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER28" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES28" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET28" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX28" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY28" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC28" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD28" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH28" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI28" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM28" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN28" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR28" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS28" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU28" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV28" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW28" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX28" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB28" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC28" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG28" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH28" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL28" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM28" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ28" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR28" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV28" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW28" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ28" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA28" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB28" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC28" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -20522,7 +21574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU27"/>
+  <dimension ref="A1:DU28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20883,7 +21935,7 @@
       </c>
       <c r="DA1" t="inlineStr">
         <is>
-          <t>amazon_13_file</t>
+          <t>amazon_12_model</t>
         </is>
       </c>
       <c r="DB1" t="inlineStr">
@@ -25556,7 +26608,7 @@
       </c>
       <c r="DA20" t="inlineStr">
         <is>
-          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+          <t>SM-F966U</t>
         </is>
       </c>
       <c r="DB20" t="inlineStr">
@@ -25978,7 +27030,7 @@
       </c>
       <c r="DA21" t="inlineStr">
         <is>
-          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+          <t>SM-F966U</t>
         </is>
       </c>
       <c r="DB21" t="inlineStr">
@@ -26308,11 +27360,6 @@
           <t>$2,019.99</t>
         </is>
       </c>
-      <c r="DA22" t="inlineStr">
-        <is>
-          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
-        </is>
-      </c>
       <c r="DB22" t="inlineStr">
         <is>
           <t>sm-f966uzkfxaa</t>
@@ -26712,7 +27759,7 @@
       </c>
       <c r="DA23" t="inlineStr">
         <is>
-          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+          <t>SM-F966U</t>
         </is>
       </c>
       <c r="DB23" t="inlineStr">
@@ -27134,7 +28181,7 @@
       </c>
       <c r="DA24" t="inlineStr">
         <is>
-          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+          <t>SM-F966U</t>
         </is>
       </c>
       <c r="DB24" t="inlineStr">
@@ -27556,7 +28603,7 @@
       </c>
       <c r="DA25" t="inlineStr">
         <is>
-          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+          <t>SM-F966U</t>
         </is>
       </c>
       <c r="DB25" t="inlineStr">
@@ -27978,7 +29025,7 @@
       </c>
       <c r="DA26" t="inlineStr">
         <is>
-          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+          <t>SM-F966U</t>
         </is>
       </c>
       <c r="DB26" t="inlineStr">
@@ -28400,7 +29447,7 @@
       </c>
       <c r="DA27" t="inlineStr">
         <is>
-          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+          <t>SM-F966U</t>
         </is>
       </c>
       <c r="DB27" t="inlineStr">
@@ -28469,6 +29516,428 @@
         </is>
       </c>
       <c r="DU27" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-12-21T06:40:19.054117-05:00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>$968..99</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>$805..15</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>$869.99</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI28" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ28" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP28" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW28" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX28" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY28" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ28" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA28" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB28" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF28" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG28" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH28" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI28" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ28" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK28" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO28" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP28" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ28" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR28" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS28" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT28" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX28" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY28" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ28" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA28" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB28" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC28" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG28" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DH28" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI28" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ28" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK28" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL28" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP28" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ28" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR28" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS28" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT28" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU28" t="inlineStr">
         <is>
           <t>SM-F966UZSEXAA</t>
         </is>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC28"/>
+  <dimension ref="A1:HC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21558,6 +21558,1058 @@
         </is>
       </c>
       <c r="HC28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-12-21T18:43:09.731844-05:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$1,719..98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$968..99</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>$804..71</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>$125..90</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>$869.99</t>
+        </is>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ29" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV29" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BW29" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA29" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB29" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF29" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG29" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK29" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL29" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP29" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ29" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU29" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV29" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ29" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA29" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE29" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DF29" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ29" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK29" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO29" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT29" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU29" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY29" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ29" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED29" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE29" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI29" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ29" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN29" t="inlineStr">
+        <is>
+          <t>$1,719..69</t>
+        </is>
+      </c>
+      <c r="EO29" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER29" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES29" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET29" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX29" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY29" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC29" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD29" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH29" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI29" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM29" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN29" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR29" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS29" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU29" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV29" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW29" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX29" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB29" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC29" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG29" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH29" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL29" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM29" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ29" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR29" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV29" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW29" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ29" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA29" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB29" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC29" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -21574,7 +22626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU28"/>
+  <dimension ref="A1:DU29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29943,6 +30995,428 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-12-21T18:43:09.731844-05:00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$1,719..98</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>$1,199..95</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>$968..99</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>$804..71</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>$869.99</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>$349.99</t>
+        </is>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ29" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>$125..90</t>
+        </is>
+      </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP29" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ29" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW29" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX29" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY29" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ29" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA29" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB29" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF29" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG29" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH29" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI29" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ29" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK29" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO29" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP29" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ29" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR29" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS29" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT29" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX29" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY29" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ29" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA29" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB29" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC29" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG29" t="inlineStr">
+        <is>
+          <t>$1,719..69</t>
+        </is>
+      </c>
+      <c r="DH29" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI29" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ29" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK29" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL29" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP29" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ29" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR29" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS29" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT29" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU29" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC29"/>
+  <dimension ref="A1:HC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22610,6 +22610,1058 @@
         </is>
       </c>
       <c r="HC29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-12-22T06:42:29.312626-05:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$1,719..98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>$1,219..99</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>$804..25</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL30" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM30" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ30" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV30" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BW30" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA30" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB30" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF30" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG30" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK30" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CL30" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP30" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ30" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU30" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV30" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ30" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA30" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE30" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF30" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ30" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK30" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO30" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT30" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU30" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY30" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ30" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED30" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE30" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI30" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ30" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN30" t="inlineStr">
+        <is>
+          <t>$1,719..21</t>
+        </is>
+      </c>
+      <c r="EO30" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER30" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES30" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET30" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX30" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY30" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC30" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD30" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH30" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI30" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM30" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN30" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR30" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS30" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU30" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV30" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW30" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX30" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB30" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC30" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG30" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH30" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL30" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM30" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ30" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR30" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV30" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW30" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY30" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ30" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA30" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB30" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC30" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -22626,7 +23678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU29"/>
+  <dimension ref="A1:DU30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31417,6 +32469,428 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-12-22T06:42:29.312626-05:00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$1,719..98</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>$1,219..99</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>$804..25</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ30" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO30" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP30" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ30" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW30" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX30" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY30" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ30" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA30" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB30" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF30" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG30" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH30" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI30" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ30" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK30" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO30" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP30" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ30" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR30" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS30" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT30" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX30" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY30" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ30" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA30" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB30" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC30" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG30" t="inlineStr">
+        <is>
+          <t>$1,719..21</t>
+        </is>
+      </c>
+      <c r="DH30" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI30" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ30" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK30" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL30" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP30" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ30" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR30" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS30" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT30" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU30" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC30"/>
+  <dimension ref="A1:HC31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23662,6 +23662,1058 @@
         </is>
       </c>
       <c r="HC30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-12-22T18:44:06.254599-05:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$1,699..98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>$1,297..99</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>$803..78</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL31" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM31" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ31" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV31" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="BW31" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA31" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB31" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF31" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG31" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK31" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL31" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP31" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ31" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU31" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV31" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ31" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA31" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE31" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF31" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ31" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK31" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO31" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT31" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU31" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY31" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ31" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED31" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE31" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI31" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ31" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN31" t="inlineStr">
+        <is>
+          <t>$1,718..74</t>
+        </is>
+      </c>
+      <c r="EO31" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER31" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES31" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET31" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX31" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY31" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC31" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD31" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH31" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI31" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM31" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN31" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR31" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS31" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU31" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV31" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW31" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX31" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB31" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC31" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG31" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH31" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL31" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM31" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ31" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR31" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV31" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW31" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY31" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ31" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA31" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB31" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC31" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -23678,7 +24730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU30"/>
+  <dimension ref="A1:DU31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32891,6 +33943,428 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-12-22T18:44:06.254599-05:00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$1,699..98</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>$1,297..99</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>$803..78</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA31" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI31" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ31" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO31" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP31" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ31" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW31" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX31" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY31" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ31" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA31" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB31" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF31" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG31" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH31" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI31" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ31" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK31" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO31" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP31" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ31" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR31" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS31" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT31" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX31" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY31" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ31" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA31" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB31" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC31" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG31" t="inlineStr">
+        <is>
+          <t>$1,718..74</t>
+        </is>
+      </c>
+      <c r="DH31" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI31" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ31" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK31" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL31" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP31" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ31" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR31" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS31" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT31" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU31" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC31"/>
+  <dimension ref="A1:HC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24714,6 +24714,1058 @@
         </is>
       </c>
       <c r="HC31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-12-23T06:44:09.880743-05:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$1,699..98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>$1,297..99</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>$803..33</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC32" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG32" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL32" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM32" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ32" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV32" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="BW32" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA32" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB32" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF32" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG32" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK32" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL32" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP32" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ32" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU32" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV32" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ32" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA32" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE32" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF32" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ32" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK32" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO32" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DQ32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT32" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU32" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY32" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ32" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED32" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE32" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI32" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ32" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN32" t="inlineStr">
+        <is>
+          <t>$1,718..22</t>
+        </is>
+      </c>
+      <c r="EO32" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER32" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES32" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET32" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX32" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY32" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC32" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD32" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH32" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI32" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM32" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN32" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR32" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS32" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU32" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV32" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW32" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX32" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB32" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC32" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG32" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH32" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL32" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM32" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ32" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR32" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV32" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW32" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY32" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ32" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA32" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB32" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC32" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -24730,7 +25782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU31"/>
+  <dimension ref="A1:DU32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34365,6 +35417,428 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-12-23T06:44:09.880743-05:00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$1,699..98</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>$1,297..99</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>$803..33</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA32" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF32" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG32" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI32" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ32" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN32" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO32" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP32" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ32" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW32" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX32" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY32" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ32" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA32" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB32" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF32" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG32" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH32" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI32" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ32" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK32" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO32" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP32" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ32" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR32" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS32" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT32" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX32" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY32" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ32" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA32" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB32" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC32" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG32" t="inlineStr">
+        <is>
+          <t>$1,718..22</t>
+        </is>
+      </c>
+      <c r="DH32" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI32" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ32" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK32" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL32" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP32" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ32" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR32" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS32" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT32" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU32" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC32"/>
+  <dimension ref="A1:HC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25766,6 +25766,1063 @@
         </is>
       </c>
       <c r="HC32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>23 Dec 2025, 18:43</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$1,699..98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>$1,238..94</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>$802..96</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC33" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG33" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL33" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM33" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ33" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV33" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="BW33" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA33" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB33" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF33" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG33" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK33" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL33" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP33" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ33" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU33" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV33" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ33" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA33" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE33" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF33" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ33" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK33" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO33" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DP33" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT33" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU33" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY33" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ33" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED33" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE33" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI33" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ33" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN33" t="inlineStr">
+        <is>
+          <t>$1,717..72</t>
+        </is>
+      </c>
+      <c r="EO33" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER33" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES33" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET33" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX33" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY33" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC33" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD33" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH33" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI33" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM33" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN33" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR33" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS33" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU33" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV33" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW33" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX33" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB33" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC33" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG33" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH33" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL33" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM33" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ33" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR33" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV33" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW33" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY33" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ33" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA33" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB33" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC33" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -25782,7 +26839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU32"/>
+  <dimension ref="A1:DU33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35839,6 +36896,433 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>23 Dec 2025, 18:43</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$1,699..98</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>$1,238..94</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>$802..96</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ33" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA33" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE33" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF33" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG33" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI33" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ33" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN33" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO33" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP33" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ33" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS33" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW33" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX33" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY33" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ33" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA33" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB33" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF33" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG33" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH33" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI33" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ33" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK33" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO33" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP33" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ33" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR33" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS33" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT33" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX33" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY33" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ33" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA33" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB33" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC33" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG33" t="inlineStr">
+        <is>
+          <t>$1,717..72</t>
+        </is>
+      </c>
+      <c r="DH33" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI33" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ33" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK33" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL33" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP33" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ33" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR33" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS33" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT33" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU33" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC33"/>
+  <dimension ref="A1:HC34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26823,6 +26823,1063 @@
         </is>
       </c>
       <c r="HC33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>24 Dec 2025, 06:42</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$1,699..98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>$1,238..94</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$1,219..99</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>$802..56</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB34" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC34" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG34" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL34" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM34" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ34" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV34" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="BW34" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA34" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB34" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF34" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG34" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK34" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL34" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP34" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ34" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU34" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV34" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ34" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA34" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE34" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF34" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ34" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK34" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO34" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DP34" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT34" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU34" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY34" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ34" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED34" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE34" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI34" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ34" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN34" t="inlineStr">
+        <is>
+          <t>$1,717..71</t>
+        </is>
+      </c>
+      <c r="EO34" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER34" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES34" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET34" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX34" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY34" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC34" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD34" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH34" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI34" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM34" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN34" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR34" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS34" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU34" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV34" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW34" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX34" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB34" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC34" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG34" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH34" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL34" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM34" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ34" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR34" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV34" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW34" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ34" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA34" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB34" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC34" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -26839,7 +27896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU33"/>
+  <dimension ref="A1:DU34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37323,6 +38380,433 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>24 Dec 2025, 06:42</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$1,699..98</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>$1,238..94</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>$1,219..99</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>$802..56</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ34" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA34" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE34" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF34" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG34" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI34" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ34" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN34" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO34" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP34" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ34" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS34" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW34" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX34" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY34" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ34" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA34" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB34" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF34" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG34" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH34" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI34" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ34" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK34" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO34" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP34" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ34" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR34" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS34" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT34" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX34" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY34" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ34" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA34" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB34" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC34" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG34" t="inlineStr">
+        <is>
+          <t>$1,717..71</t>
+        </is>
+      </c>
+      <c r="DH34" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI34" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ34" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK34" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL34" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP34" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ34" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR34" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS34" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT34" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU34" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC34"/>
+  <dimension ref="A1:HC35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27880,6 +27880,993 @@
         </is>
       </c>
       <c r="HC34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>24 Dec 2025, 18:43</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>$1,284..99</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC35" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG35" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL35" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM35" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ35" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV35" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="BW35" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA35" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB35" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF35" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG35" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK35" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL35" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP35" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ35" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU35" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV35" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ35" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA35" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE35" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF35" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ35" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="DK35" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO35" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="DP35" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DV35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EA35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EF35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EK35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN35" t="inlineStr">
+        <is>
+          <t>$1,717..72</t>
+        </is>
+      </c>
+      <c r="EO35" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER35" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES35" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET35" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX35" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY35" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC35" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD35" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH35" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI35" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM35" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN35" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR35" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS35" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU35" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV35" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW35" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX35" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB35" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC35" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG35" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH35" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL35" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM35" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ35" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR35" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV35" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW35" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ35" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA35" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB35" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC35" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -27896,7 +28883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU34"/>
+  <dimension ref="A1:DU35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38807,6 +39794,363 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>24 Dec 2025, 18:43</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>$1,284..99</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ35" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA35" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE35" t="inlineStr">
+        <is>
+          <t>$399..99</t>
+        </is>
+      </c>
+      <c r="BF35" t="inlineStr">
+        <is>
+          <t>$299.99</t>
+        </is>
+      </c>
+      <c r="BG35" t="inlineStr">
+        <is>
+          <t>$369.99</t>
+        </is>
+      </c>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI35" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ35" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BO35" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BP35" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS35" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BX35" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY35" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CA35" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB35" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CG35" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH35" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CJ35" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK35" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CP35" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ35" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CS35" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT35" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CY35" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ35" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DB35" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC35" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG35" t="inlineStr">
+        <is>
+          <t>$1,717..72</t>
+        </is>
+      </c>
+      <c r="DH35" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI35" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ35" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK35" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL35" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP35" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ35" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR35" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS35" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT35" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU35" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC35"/>
+  <dimension ref="A1:HC36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28867,6 +28867,1063 @@
         </is>
       </c>
       <c r="HC35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>25 Dec 2025, 06:41</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$1,699..99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>$1,284..99</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>$801..71</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC36" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG36" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL36" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM36" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ36" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV36" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BW36" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA36" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="CB36" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF36" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG36" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK36" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL36" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP36" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ36" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU36" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV36" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ36" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA36" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE36" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF36" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ36" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DK36" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO36" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="DP36" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT36" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU36" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY36" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ36" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED36" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE36" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI36" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ36" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN36" t="inlineStr">
+        <is>
+          <t>$1,717..72</t>
+        </is>
+      </c>
+      <c r="EO36" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER36" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES36" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET36" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX36" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY36" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC36" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD36" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH36" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI36" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM36" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN36" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR36" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS36" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU36" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV36" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW36" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX36" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB36" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC36" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG36" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH36" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL36" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM36" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ36" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR36" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV36" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW36" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ36" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA36" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB36" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC36" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -28883,7 +29940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU35"/>
+  <dimension ref="A1:DU36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40151,6 +41208,433 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>25 Dec 2025, 06:41</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$1,699..99</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>$1,284..99</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>$801..71</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ36" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA36" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="BF36" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BG36" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI36" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ36" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN36" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO36" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BP36" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="BQ36" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS36" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW36" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX36" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY36" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ36" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA36" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB36" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF36" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG36" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH36" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI36" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ36" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK36" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO36" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP36" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ36" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR36" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS36" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT36" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX36" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY36" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ36" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA36" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB36" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC36" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG36" t="inlineStr">
+        <is>
+          <t>$1,717..72</t>
+        </is>
+      </c>
+      <c r="DH36" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI36" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ36" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK36" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL36" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP36" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ36" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR36" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS36" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT36" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU36" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC36"/>
+  <dimension ref="A1:HC37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29924,6 +29924,1063 @@
         </is>
       </c>
       <c r="HC36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>25 Dec 2025, 18:44</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>$1,284..99</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>$801..25</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB37" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC37" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG37" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH37" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL37" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM37" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ37" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV37" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BW37" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA37" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="CB37" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF37" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG37" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK37" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL37" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP37" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ37" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU37" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV37" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ37" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA37" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE37" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF37" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ37" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DK37" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO37" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DP37" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT37" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU37" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY37" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ37" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED37" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE37" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI37" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ37" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN37" t="inlineStr">
+        <is>
+          <t>$1,717..71</t>
+        </is>
+      </c>
+      <c r="EO37" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER37" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES37" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET37" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX37" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY37" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC37" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD37" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH37" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI37" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM37" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN37" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR37" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS37" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU37" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV37" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW37" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX37" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB37" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC37" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG37" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH37" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL37" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM37" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ37" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR37" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV37" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW37" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ37" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA37" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB37" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC37" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -29940,7 +30997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU36"/>
+  <dimension ref="A1:DU37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41635,6 +42692,433 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>25 Dec 2025, 18:44</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>$1,284..99</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>$801..25</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV37" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ37" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA37" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE37" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="BF37" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BG37" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BH37" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI37" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ37" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN37" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO37" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP37" t="inlineStr">
+        <is>
+          <t>$149.99</t>
+        </is>
+      </c>
+      <c r="BQ37" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS37" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW37" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX37" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY37" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ37" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA37" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB37" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF37" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG37" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH37" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI37" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ37" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK37" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO37" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP37" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ37" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR37" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS37" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT37" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX37" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY37" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ37" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA37" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB37" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC37" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG37" t="inlineStr">
+        <is>
+          <t>$1,717..71</t>
+        </is>
+      </c>
+      <c r="DH37" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI37" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ37" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK37" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL37" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP37" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ37" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR37" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS37" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT37" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU37" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC37"/>
+  <dimension ref="A1:HC38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30981,6 +30981,1063 @@
         </is>
       </c>
       <c r="HC37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>26 Dec 2025, 06:42</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>$1,284..99</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>$800..76</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC38" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG38" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL38" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM38" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ38" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV38" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BW38" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA38" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB38" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF38" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG38" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK38" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL38" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP38" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ38" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU38" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV38" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ38" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA38" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE38" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF38" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ38" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DK38" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO38" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DP38" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT38" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU38" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY38" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ38" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED38" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE38" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI38" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ38" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN38" t="inlineStr">
+        <is>
+          <t>$1,717..71</t>
+        </is>
+      </c>
+      <c r="EO38" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER38" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES38" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET38" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX38" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY38" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC38" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD38" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH38" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI38" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM38" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN38" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR38" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS38" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU38" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV38" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW38" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX38" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB38" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC38" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG38" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH38" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL38" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM38" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ38" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR38" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV38" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW38" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY38" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ38" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA38" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB38" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC38" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -30997,7 +32054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU37"/>
+  <dimension ref="A1:DU38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43119,6 +44176,433 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>26 Dec 2025, 06:42</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>$1,284..99</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>$800..76</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ38" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA38" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="BF38" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BG38" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI38" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ38" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN38" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO38" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP38" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ38" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS38" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW38" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX38" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY38" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ38" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA38" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB38" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF38" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG38" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH38" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI38" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ38" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK38" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO38" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP38" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ38" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR38" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS38" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT38" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX38" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY38" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ38" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA38" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB38" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC38" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG38" t="inlineStr">
+        <is>
+          <t>$1,717..71</t>
+        </is>
+      </c>
+      <c r="DH38" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI38" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ38" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK38" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL38" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP38" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ38" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR38" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS38" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT38" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU38" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC38"/>
+  <dimension ref="A1:HC39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32038,6 +32038,1063 @@
         </is>
       </c>
       <c r="HC38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>26 Dec 2025, 18:44</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>$1,284..99</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>$800..28</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB39" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC39" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG39" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH39" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL39" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM39" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ39" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV39" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BW39" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA39" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB39" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF39" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG39" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK39" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL39" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP39" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ39" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU39" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV39" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ39" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA39" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE39" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF39" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ39" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DK39" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO39" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DP39" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT39" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU39" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY39" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ39" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED39" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE39" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI39" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ39" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN39" t="inlineStr">
+        <is>
+          <t>$1,717..72</t>
+        </is>
+      </c>
+      <c r="EO39" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER39" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES39" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET39" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX39" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY39" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC39" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD39" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH39" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI39" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM39" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN39" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR39" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS39" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU39" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV39" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW39" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX39" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB39" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC39" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG39" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH39" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL39" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM39" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ39" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR39" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV39" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW39" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY39" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ39" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA39" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB39" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC39" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -32054,7 +33111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU38"/>
+  <dimension ref="A1:DU39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44603,6 +45660,433 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>26 Dec 2025, 18:44</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>$1,284..99</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>$800..28</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ39" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA39" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE39" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="BF39" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BG39" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BH39" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI39" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ39" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN39" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO39" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP39" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ39" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS39" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW39" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX39" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY39" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ39" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA39" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB39" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF39" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG39" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH39" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI39" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ39" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK39" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO39" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP39" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ39" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR39" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS39" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT39" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX39" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY39" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ39" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA39" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB39" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC39" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG39" t="inlineStr">
+        <is>
+          <t>$1,717..72</t>
+        </is>
+      </c>
+      <c r="DH39" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI39" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ39" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK39" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL39" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP39" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ39" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR39" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS39" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT39" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU39" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC39"/>
+  <dimension ref="A1:HC40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33095,6 +33095,1063 @@
         </is>
       </c>
       <c r="HC39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>27 Dec 2025, 06:40</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>$1,284..99</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>$799..90</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB40" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC40" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG40" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH40" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL40" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM40" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ40" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV40" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BW40" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA40" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB40" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF40" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG40" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK40" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL40" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP40" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ40" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU40" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV40" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ40" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA40" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE40" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF40" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ40" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DK40" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO40" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DP40" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT40" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU40" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY40" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ40" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED40" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE40" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI40" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ40" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN40" t="inlineStr">
+        <is>
+          <t>$1,717..71</t>
+        </is>
+      </c>
+      <c r="EO40" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER40" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES40" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET40" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX40" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY40" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC40" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD40" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH40" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI40" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM40" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN40" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR40" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS40" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU40" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV40" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW40" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX40" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB40" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC40" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG40" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH40" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL40" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM40" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ40" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR40" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV40" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW40" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY40" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ40" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA40" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB40" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC40" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -33111,7 +34168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU39"/>
+  <dimension ref="A1:DU40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46087,6 +47144,433 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>27 Dec 2025, 06:40</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>$1,284..99</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>$799..90</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ40" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA40" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE40" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="BF40" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BG40" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BH40" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI40" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ40" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN40" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO40" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP40" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ40" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS40" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW40" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX40" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY40" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ40" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA40" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB40" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF40" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG40" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH40" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI40" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ40" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK40" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO40" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP40" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ40" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR40" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS40" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT40" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX40" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY40" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ40" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA40" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB40" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC40" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG40" t="inlineStr">
+        <is>
+          <t>$1,717..71</t>
+        </is>
+      </c>
+      <c r="DH40" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI40" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ40" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK40" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL40" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP40" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ40" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR40" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS40" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT40" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU40" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC40"/>
+  <dimension ref="A1:HC41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34152,6 +34152,1063 @@
         </is>
       </c>
       <c r="HC40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>27 Dec 2025, 18:43</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>$1,326..77</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>$799..42</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB41" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC41" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG41" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL41" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM41" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ41" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV41" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BW41" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA41" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB41" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF41" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG41" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK41" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL41" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP41" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ41" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU41" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV41" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ41" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA41" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE41" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF41" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ41" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DK41" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO41" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DP41" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT41" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU41" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY41" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ41" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED41" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE41" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI41" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ41" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN41" t="inlineStr">
+        <is>
+          <t>$1,717..58</t>
+        </is>
+      </c>
+      <c r="EO41" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER41" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES41" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET41" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX41" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY41" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC41" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD41" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH41" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI41" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM41" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN41" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR41" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS41" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU41" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV41" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW41" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX41" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB41" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC41" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG41" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH41" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL41" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM41" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ41" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR41" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV41" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW41" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY41" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ41" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA41" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB41" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC41" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -34168,7 +35225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU40"/>
+  <dimension ref="A1:DU41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47571,6 +48628,433 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>27 Dec 2025, 18:43</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>$1,326..77</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>$799..42</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ41" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA41" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE41" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="BF41" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BG41" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI41" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ41" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN41" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO41" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP41" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ41" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS41" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW41" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX41" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY41" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ41" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA41" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB41" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF41" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG41" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH41" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI41" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ41" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK41" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO41" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP41" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ41" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR41" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS41" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT41" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX41" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY41" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ41" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA41" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB41" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC41" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG41" t="inlineStr">
+        <is>
+          <t>$1,717..58</t>
+        </is>
+      </c>
+      <c r="DH41" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI41" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ41" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK41" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL41" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP41" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ41" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR41" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS41" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT41" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU41" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC41"/>
+  <dimension ref="A1:HC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35209,6 +35209,1063 @@
         </is>
       </c>
       <c r="HC41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>28 Dec 2025, 06:40</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>$1,299..99</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB42" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC42" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG42" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BH42" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL42" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM42" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ42" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV42" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BW42" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA42" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB42" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF42" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG42" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK42" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL42" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP42" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ42" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU42" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV42" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ42" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA42" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE42" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF42" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ42" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DK42" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO42" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DP42" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT42" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU42" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY42" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ42" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED42" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE42" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI42" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ42" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN42" t="inlineStr">
+        <is>
+          <t>$1,717..10</t>
+        </is>
+      </c>
+      <c r="EO42" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER42" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES42" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET42" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX42" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY42" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC42" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD42" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH42" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI42" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM42" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN42" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR42" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS42" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU42" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV42" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW42" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX42" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB42" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC42" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG42" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH42" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL42" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM42" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ42" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR42" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV42" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW42" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ42" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA42" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB42" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC42" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -35225,7 +36282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU41"/>
+  <dimension ref="A1:DU42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49055,6 +50112,433 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>28 Dec 2025, 06:40</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>$1,299..99</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ42" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA42" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE42" t="inlineStr">
+        <is>
+          <t>$549..99</t>
+        </is>
+      </c>
+      <c r="BF42" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BG42" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BH42" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI42" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ42" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN42" t="inlineStr">
+        <is>
+          <t>$159..99</t>
+        </is>
+      </c>
+      <c r="BO42" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP42" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BQ42" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS42" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW42" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX42" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY42" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="BZ42" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA42" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB42" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF42" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG42" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH42" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CI42" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ42" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK42" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO42" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP42" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ42" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CR42" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS42" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT42" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX42" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY42" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ42" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DA42" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB42" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC42" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG42" t="inlineStr">
+        <is>
+          <t>$1,717..10</t>
+        </is>
+      </c>
+      <c r="DH42" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI42" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DJ42" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK42" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL42" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP42" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ42" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR42" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DS42" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT42" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU42" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC42"/>
+  <dimension ref="A1:HC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36266,6 +36266,988 @@
         </is>
       </c>
       <c r="HC42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>28 Dec 2025, 18:43</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>$1,299..99</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB43" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BC43" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG43" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BH43" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL43" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="BM43" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ43" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV43" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BW43" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA43" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="CB43" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF43" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG43" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK43" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL43" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP43" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ43" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU43" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV43" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ43" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="DA43" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE43" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF43" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ43" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DK43" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO43" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="DP43" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT43" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DV43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EA43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED43" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EF43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EK43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EP43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER43" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES43" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="EU43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX43" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="EY43" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC43" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FD43" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH43" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="FI43" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM43" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="FN43" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR43" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FS43" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU43" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV43" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW43" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="FX43" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB43" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC43" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG43" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH43" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL43" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM43" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ43" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR43" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV43" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW43" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ43" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA43" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB43" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC43" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -36282,7 +37264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU42"/>
+  <dimension ref="A1:DU43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50539,6 +51521,358 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>28 Dec 2025, 18:43</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>$1,299..99</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>$1,171..99</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>$829.99</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AZ43" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA43" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BF43" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BG43" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="BI43" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ43" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BO43" t="inlineStr">
+        <is>
+          <t>$169.99</t>
+        </is>
+      </c>
+      <c r="BP43" t="inlineStr">
+        <is>
+          <t>$159.99</t>
+        </is>
+      </c>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS43" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW43" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX43" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY43" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CA43" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB43" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CG43" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH43" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CJ43" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK43" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO43" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP43" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ43" t="inlineStr">
+        <is>
+          <t>$1,599.99</t>
+        </is>
+      </c>
+      <c r="CS43" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT43" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CY43" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ43" t="inlineStr">
+        <is>
+          <t>$2,019.99</t>
+        </is>
+      </c>
+      <c r="DB43" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC43" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DH43" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI43" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DK43" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL43" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP43" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ43" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR43" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="DT43" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU43" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC43"/>
+  <dimension ref="A1:HC44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37248,6 +37248,1013 @@
         </is>
       </c>
       <c r="HC43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>29 Dec 2025, 06:43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB44" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC44" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG44" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="BH44" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL44" t="inlineStr">
+        <is>
+          <t>$979.99</t>
+        </is>
+      </c>
+      <c r="BM44" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ44" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV44" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BW44" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA44" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="CB44" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF44" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="CG44" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK44" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="CL44" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP44" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CQ44" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU44" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV44" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ44" t="inlineStr">
+        <is>
+          <t>$979.99</t>
+        </is>
+      </c>
+      <c r="DA44" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE44" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF44" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ44" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="DK44" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO44" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="DP44" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT44" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU44" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY44" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ44" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED44" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE44" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI44" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ44" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN44" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EO44" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ44" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER44" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES44" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET44" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX44" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="EY44" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC44" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FD44" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH44" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FI44" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM44" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="FN44" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR44" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FS44" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU44" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV44" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW44" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FX44" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB44" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC44" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG44" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH44" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL44" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM44" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ44" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR44" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV44" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW44" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ44" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA44" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB44" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC44" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -37264,7 +38271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU43"/>
+  <dimension ref="A1:DU44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51873,6 +52880,383 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>29 Dec 2025, 06:43</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>$1,419.99</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>$979.99</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>$979.99</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AZ44" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA44" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BF44" t="inlineStr">
+        <is>
+          <t>$449.99</t>
+        </is>
+      </c>
+      <c r="BG44" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BI44" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ44" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN44" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="BO44" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="BP44" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BQ44" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS44" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW44" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX44" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY44" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="BZ44" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA44" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB44" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF44" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG44" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH44" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CI44" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ44" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK44" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO44" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP44" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ44" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CR44" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS44" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT44" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX44" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY44" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ44" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="DA44" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB44" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC44" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG44" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DH44" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI44" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DJ44" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK44" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL44" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP44" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ44" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR44" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DS44" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT44" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU44" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC44"/>
+  <dimension ref="A1:HC45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38255,6 +38255,1063 @@
         </is>
       </c>
       <c r="HC44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>29 Dec 2025, 18:44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>$1,169..99</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>$499..99</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB45" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC45" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG45" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="BH45" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL45" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM45" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ45" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV45" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BW45" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA45" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="CB45" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF45" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG45" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK45" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="CL45" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP45" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ45" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU45" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="CV45" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ45" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA45" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE45" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF45" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ45" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="DK45" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO45" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="DP45" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT45" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DU45" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY45" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DZ45" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED45" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EE45" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI45" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="EJ45" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN45" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EO45" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER45" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES45" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="ET45" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX45" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="EY45" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC45" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FD45" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH45" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FI45" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM45" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="FN45" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR45" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FS45" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU45" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV45" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW45" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FX45" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB45" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC45" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG45" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH45" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL45" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM45" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ45" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR45" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV45" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW45" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ45" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA45" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB45" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC45" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -38271,7 +39328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU44"/>
+  <dimension ref="A1:DU45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53257,6 +54314,433 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>29 Dec 2025, 18:44</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>$1,169..99</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>$829..99</t>
+        </is>
+      </c>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ45" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA45" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE45" t="inlineStr">
+        <is>
+          <t>$499..99</t>
+        </is>
+      </c>
+      <c r="BF45" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BG45" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BH45" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI45" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ45" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN45" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="BO45" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BP45" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BQ45" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS45" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW45" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="BX45" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY45" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="BZ45" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA45" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB45" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF45" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CG45" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH45" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CI45" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ45" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK45" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO45" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="CP45" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ45" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CR45" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS45" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT45" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX45" t="inlineStr">
+        <is>
+          <t>$2,019..99</t>
+        </is>
+      </c>
+      <c r="CY45" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ45" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="DA45" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB45" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC45" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG45" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DH45" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI45" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DJ45" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK45" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL45" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP45" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="DQ45" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR45" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DS45" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT45" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU45" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC45"/>
+  <dimension ref="A1:HC46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39312,6 +39312,1063 @@
         </is>
       </c>
       <c r="HC45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>30 Dec 2025, 06:43</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>$1,169..99</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>$499..99</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS46" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB46" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC46" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG46" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="BH46" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL46" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM46" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ46" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV46" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BW46" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA46" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="CB46" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF46" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG46" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK46" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="CL46" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP46" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ46" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU46" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="CV46" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ46" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA46" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE46" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF46" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ46" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="DK46" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO46" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="DP46" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT46" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="DU46" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY46" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="DZ46" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED46" t="inlineStr">
+        <is>
+          <t>$1,809..99</t>
+        </is>
+      </c>
+      <c r="EE46" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI46" t="inlineStr">
+        <is>
+          <t>$2,419..99</t>
+        </is>
+      </c>
+      <c r="EJ46" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN46" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="EO46" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER46" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES46" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="ET46" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX46" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="EY46" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC46" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FD46" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH46" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FI46" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM46" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="FN46" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR46" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FS46" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU46" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV46" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW46" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FX46" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB46" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC46" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG46" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH46" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL46" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM46" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ46" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR46" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV46" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW46" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY46" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ46" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA46" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB46" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC46" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -39328,7 +40385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU45"/>
+  <dimension ref="A1:DU46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54741,6 +55798,433 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>30 Dec 2025, 06:43</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>$1,169..99</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ46" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA46" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE46" t="inlineStr">
+        <is>
+          <t>$499..99</t>
+        </is>
+      </c>
+      <c r="BF46" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BG46" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BH46" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI46" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ46" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN46" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="BO46" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BP46" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BQ46" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS46" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW46" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="BX46" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY46" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="BZ46" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA46" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB46" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF46" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="CG46" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH46" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CI46" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ46" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK46" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO46" t="inlineStr">
+        <is>
+          <t>$1,809..99</t>
+        </is>
+      </c>
+      <c r="CP46" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ46" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CR46" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS46" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT46" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX46" t="inlineStr">
+        <is>
+          <t>$2,419..99</t>
+        </is>
+      </c>
+      <c r="CY46" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ46" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="DA46" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB46" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC46" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG46" t="inlineStr">
+        <is>
+          <t>$1,599..99</t>
+        </is>
+      </c>
+      <c r="DH46" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI46" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DJ46" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK46" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL46" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP46" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="DQ46" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR46" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DS46" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT46" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU46" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC46"/>
+  <dimension ref="A1:HC47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40369,6 +40369,1063 @@
         </is>
       </c>
       <c r="HC46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>30 Dec 2025, 18:43</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>$1,159..94</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>$499..99</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS47" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB47" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC47" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG47" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="BH47" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL47" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM47" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ47" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV47" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BW47" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA47" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="CB47" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF47" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG47" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK47" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="CL47" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP47" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ47" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU47" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="CV47" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ47" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA47" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE47" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF47" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ47" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="DK47" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO47" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="DP47" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT47" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="DU47" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY47" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="DZ47" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED47" t="inlineStr">
+        <is>
+          <t>$1,809..99</t>
+        </is>
+      </c>
+      <c r="EE47" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI47" t="inlineStr">
+        <is>
+          <t>$2,419..99</t>
+        </is>
+      </c>
+      <c r="EJ47" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN47" t="inlineStr">
+        <is>
+          <t>$1,717..87</t>
+        </is>
+      </c>
+      <c r="EO47" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER47" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES47" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="ET47" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX47" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="EY47" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC47" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FD47" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH47" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FI47" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM47" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="FN47" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR47" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FS47" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU47" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV47" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW47" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FX47" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB47" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC47" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG47" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH47" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL47" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM47" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ47" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR47" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV47" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW47" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY47" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ47" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA47" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB47" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC47" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -40385,7 +41442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU46"/>
+  <dimension ref="A1:DU47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56225,6 +57282,433 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>30 Dec 2025, 18:43</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>$1,159..94</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>$919.99</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ47" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA47" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE47" t="inlineStr">
+        <is>
+          <t>$499..99</t>
+        </is>
+      </c>
+      <c r="BF47" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BG47" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BH47" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI47" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ47" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN47" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="BO47" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BP47" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BQ47" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS47" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW47" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="BX47" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY47" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="BZ47" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA47" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB47" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF47" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="CG47" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH47" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CI47" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ47" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK47" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO47" t="inlineStr">
+        <is>
+          <t>$1,809..99</t>
+        </is>
+      </c>
+      <c r="CP47" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ47" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CR47" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS47" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT47" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX47" t="inlineStr">
+        <is>
+          <t>$2,419..99</t>
+        </is>
+      </c>
+      <c r="CY47" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ47" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="DA47" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB47" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC47" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG47" t="inlineStr">
+        <is>
+          <t>$1,717..87</t>
+        </is>
+      </c>
+      <c r="DH47" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI47" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DJ47" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK47" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL47" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP47" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="DQ47" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR47" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DS47" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT47" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU47" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC47"/>
+  <dimension ref="A1:HC48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41426,6 +41426,1063 @@
         </is>
       </c>
       <c r="HC47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>31 Dec 2025, 06:43</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>$1,129..00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>$499..99</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB48" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC48" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG48" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="BH48" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL48" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM48" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ48" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV48" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BW48" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA48" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="CB48" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF48" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG48" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK48" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="CL48" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP48" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ48" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU48" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV48" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ48" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA48" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE48" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF48" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ48" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="DK48" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO48" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="DP48" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT48" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="DU48" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY48" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="DZ48" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED48" t="inlineStr">
+        <is>
+          <t>$1,809..99</t>
+        </is>
+      </c>
+      <c r="EE48" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI48" t="inlineStr">
+        <is>
+          <t>$2,419..99</t>
+        </is>
+      </c>
+      <c r="EJ48" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN48" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="EO48" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER48" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES48" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="ET48" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX48" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="EY48" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC48" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FD48" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH48" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FI48" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM48" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="FN48" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR48" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FS48" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU48" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV48" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW48" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FX48" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB48" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC48" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG48" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH48" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL48" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM48" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ48" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR48" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV48" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW48" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY48" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ48" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA48" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB48" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC48" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -41442,7 +42499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU47"/>
+  <dimension ref="A1:DU48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57709,6 +58766,433 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>31 Dec 2025, 06:43</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>$1,129..00</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ48" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA48" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE48" t="inlineStr">
+        <is>
+          <t>$499..99</t>
+        </is>
+      </c>
+      <c r="BF48" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BG48" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BH48" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI48" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ48" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN48" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="BO48" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BP48" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BQ48" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS48" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW48" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="BX48" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY48" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="BZ48" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA48" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB48" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF48" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="CG48" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH48" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CI48" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ48" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK48" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO48" t="inlineStr">
+        <is>
+          <t>$1,809..99</t>
+        </is>
+      </c>
+      <c r="CP48" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ48" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CR48" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS48" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT48" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX48" t="inlineStr">
+        <is>
+          <t>$2,419..99</t>
+        </is>
+      </c>
+      <c r="CY48" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ48" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="DA48" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB48" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC48" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG48" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="DH48" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI48" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DJ48" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK48" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL48" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP48" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="DQ48" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR48" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DS48" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT48" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU48" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC48"/>
+  <dimension ref="A1:HC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42483,6 +42483,1063 @@
         </is>
       </c>
       <c r="HC48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>31 Dec 2025, 18:44</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>$1,129..00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>$499..99</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB49" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC49" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG49" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="BH49" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL49" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM49" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ49" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV49" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BW49" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA49" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="CB49" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF49" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG49" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK49" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="CL49" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP49" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ49" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU49" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV49" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ49" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA49" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE49" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF49" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ49" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="DK49" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO49" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="DP49" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT49" t="inlineStr">
+        <is>
+          <t>$1,999..99</t>
+        </is>
+      </c>
+      <c r="DU49" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY49" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="DZ49" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED49" t="inlineStr">
+        <is>
+          <t>$1,809..99</t>
+        </is>
+      </c>
+      <c r="EE49" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI49" t="inlineStr">
+        <is>
+          <t>$2,419..99</t>
+        </is>
+      </c>
+      <c r="EJ49" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN49" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="EO49" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER49" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES49" t="inlineStr">
+        <is>
+          <t>$2,119..94</t>
+        </is>
+      </c>
+      <c r="ET49" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX49" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="EY49" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC49" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FD49" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH49" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FI49" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM49" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="FN49" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR49" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FS49" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU49" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV49" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW49" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FX49" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB49" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC49" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG49" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH49" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL49" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM49" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ49" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR49" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV49" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW49" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY49" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ49" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA49" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB49" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC49" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -42499,7 +43556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU48"/>
+  <dimension ref="A1:DU49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59193,6 +60250,433 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>31 Dec 2025, 18:44</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>$1,129..00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ49" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ49" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA49" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE49" t="inlineStr">
+        <is>
+          <t>$499..99</t>
+        </is>
+      </c>
+      <c r="BF49" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BG49" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BH49" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI49" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ49" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN49" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="BO49" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BP49" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BQ49" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS49" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW49" t="inlineStr">
+        <is>
+          <t>$1,999..99</t>
+        </is>
+      </c>
+      <c r="BX49" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY49" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="BZ49" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA49" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB49" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF49" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="CG49" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH49" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CI49" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ49" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK49" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO49" t="inlineStr">
+        <is>
+          <t>$1,809..99</t>
+        </is>
+      </c>
+      <c r="CP49" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ49" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CR49" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS49" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT49" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX49" t="inlineStr">
+        <is>
+          <t>$2,419..99</t>
+        </is>
+      </c>
+      <c r="CY49" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ49" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="DA49" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB49" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC49" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG49" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="DH49" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI49" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DJ49" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK49" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL49" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP49" t="inlineStr">
+        <is>
+          <t>$2,119..94</t>
+        </is>
+      </c>
+      <c r="DQ49" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR49" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DS49" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT49" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU49" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC49"/>
+  <dimension ref="A1:HC50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43540,6 +43540,1063 @@
         </is>
       </c>
       <c r="HC49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01 Jan 2026, 06:42</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-Warranty_2Fdp_2FB0DP3G4GVQ_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>$1,129..00</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FZ79/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_3_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FZ79_2Fref_3Dsr_1_1_sspa_3.html</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_4_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Smartphone-Processor-ProScaler-Manufacturer_2Fdp_2FB0DYVMVZSY_2Fref_3Dsr_1_1_sspa.html</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Android-Display-Performance-Note-Taking/dp/B0FKLRP6MT/ref=sr_1_2?crid=IRWTTSR9PD6Z&amp;dib=eyJ2IjoiMSJ9.gl7sV5EmfcxLIXPuTsNfI7op0o_zOMo7gfDS2RBeRDbcUoXl9R3vqob2YHTCDrovf3-tNFlHFWJY8EqEh7VuTrCR6SAqze32C5FkFT6b2LCjp2-lRnlgcI7zmK9NpQGio14ileVGjyBZ1vJGWPU_CMwActHF5VFeoaLVOkSTa2ImkBLodJGj5yfcU61SB3t8x102OAYCHSsCddgonqJQ1py6Tc_2EYjh_DQeXvcIiHM.xyJFuQBGqB1Lu5oSYjpdPwvbs9I0AaP3lfRsXFrM1Rk&amp;dib_tag=se&amp;keywords=Galaxy%2BTab%2BS11%2B14.6%22&amp;qid=1764916487&amp;sprefix=galaxy%2Btab%2Bs11%2B14.6%2B%2Caps%2C333&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_5_https_3A_2F_2Fwww.amazon.com_2FSamsung-Android-Display-Performance-Note-Taking_2Fdp_2FB0FKLRP6MT_2Fref_3Dsr_1_2_3Fcrid_3.html</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Titanium-Advanced-Coaching/dp/B0F7PKN2C8/ref=sr_1_1?crid=3SRX0N61TD6U6&amp;dib=eyJ2IjoiMSJ9.3IBJcvYi9CChdwEbJv-M0JI20M4KL5zbOWz0RW6vcq334Dh6E6cEn86tebR0SsocNdVg9Vfz46VEQQNuG0FZvlUMYb4SLKwoQttV0nLJndbo8nzwoJThK5IXghklqyVGNAOtTAZwtnHdRVq1_GR47W9jHBRbRgbZcCOJtIlTw3bv7sBEF30rVWSOj1HzU3u9OT6ijzvnY1rwufcUjvMQg1SE2zfvWhvMQaX5TjcMIXA.pDuCRtfVtzmqmKdh98pIvWKIqi58y6aAvqv8bK-zL3w&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch%2BUltra%2B(2025)&amp;qid=1764917703&amp;sprefix=galaxy%2Bwatch%2Bultra%2B2025%2B%2Caps%2C882&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_6_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Titanium-Advanced-Coaching_2Fdp_2FB0F7PKN2C8_2Fref_3Dsr_1_1_3Fcrid_3D3.html</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartwatch-Rotating-Coaching-Warranty/dp/B0F7PXV6LS/ref=sr_1_2?crid=WW4NH8L6HZ5D&amp;dib=eyJ2IjoiMSJ9.o36AO3N47s3Xupf6NuDGv61Z4rvpJOACuIl3dwe0mWJ0gGpb4SVSC3Csts97aT6rEDWw8CVBbJWBGDZBSNe_2vUS6d1wDqkljvRc7cHxEjpiJV9TlurdkZ5VwalrTrZUybfCHWR62MbXfx0_afRxif_aQPBGg8n9Bkpqdc_X5NbATMA-XgQfEQC_d4LL4KFOwPucXN93zEnBlnIfHKHwShUQmQ9GpqY5BG1g1xDGX94.tQWQuCrpym1uKokkf5YaSGbpPmRqxcmusFnsff5EPDk&amp;dib_tag=se&amp;keywords=Galaxy%2BWatch8%2BClassic&amp;qid=1764917793&amp;sprefix=galaxy%2Bwatch8%2Bclassic%2Caps%2C515&amp;sr=8-2&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_7_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartwatch-Rotating-Coaching-Warranty_2Fdp_2FB0F7PXV6LS_2Fref_3Dsr_1_2_3Fcrid_3DW.html</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>$499..99</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Cancelling-Optimization-Interpreter-Redesigned/dp/B0D9YZ1B72/ref=sr_1_1?crid=LJ1KR3LTUZ0E&amp;dib=eyJ2IjoiMSJ9.RbhzvfQA2eVDyW4vfE0yGXTlxYjAlt6dRnFhE49E7T6W-msgtnudbY7NKvo-7QiJqrZTjSGZ85kWCjZDydIS7l6jl4-mMdixSPjOZ69VmMbMWfiBGx6zkz0srzaWl_uuq9-TnNpml7LpJ30oYhYhEfVvEwTCBrd12UXkjZgxoODGt4NPoxTUQ74GPuf9FXT3zPdefZaGSqqFZEc2wtDXCzuTevt2p8vfx2yMKoe7aUA.pj-hN56CVzQ5a7ygsRTxXrM89X2m8BYQD6TAFnVbwCI&amp;dib_tag=se&amp;keywords=Galaxy%2BBuds3%2BPro&amp;qid=1764918515&amp;sprefix=galaxy%2Bbuds3%2Bpro%2Caps%2C538&amp;sr=8-1&amp;th=1</t>
+        </is>
+      </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_8_https_3A_2F_2Fwww.amazon.com_2FSAMSUNG-Cancelling-Optimization-Interpreter-Redesigned_2Fdp_2FB0D9YZ1B72_2Fref_3Dsr_1_1_3.html</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-blue-shadow/JJGRF3XK3P</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_1_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-blue-shadow_2FJJGRF3XK3P.html</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AU50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-ultra-512gb-unlocked-titanium-black/J3ZYG25H6J</t>
+        </is>
+      </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_2_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-ultra-512gb-unlocked-titanium-black_2FJ3ZYG25H6J.html</t>
+        </is>
+      </c>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="AZ50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-flip7-512gb-unlocked-jet-black/JJGRF335X6</t>
+        </is>
+      </c>
+      <c r="BA50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_3_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-flip7-512gb-unlocked-jet-black_2FJJGRF335X6.html</t>
+        </is>
+      </c>
+      <c r="BB50" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="BC50" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BD50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BE50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black/JJGRF3CQKC</t>
+        </is>
+      </c>
+      <c r="BF50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_4_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-s25-edge-512gb-unlocked-titanium-jet-black_2FJJGRF3CQKC.html</t>
+        </is>
+      </c>
+      <c r="BG50" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="BH50" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="BI50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BJ50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray/JJGRF39W8Q</t>
+        </is>
+      </c>
+      <c r="BK50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_5_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-tab-s11-11-512gb-wi-fi-with-s-pen-gray_2FJJGRF39W8Q.html</t>
+        </is>
+      </c>
+      <c r="BL50" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="BM50" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="BN50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BO50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025/JJGRF3SQXX/sku/6635999</t>
+        </is>
+      </c>
+      <c r="BP50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_6_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch-ultra-titanium-smartwatch-47mm-lte-titanium-blue-2025_2FJ.html</t>
+        </is>
+      </c>
+      <c r="BQ50" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BS50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BT50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025/JJGRF32VWX</t>
+        </is>
+      </c>
+      <c r="BU50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_7_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-watch8-classic-stainless-steel-smartwatch-46mm-lte-black-2025_2.html</t>
+        </is>
+      </c>
+      <c r="BV50" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BW50" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BX50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="BY50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-buds3-pro-wireless-earbud-headphones-white/J3ZYG2KR7H/sku/6585613</t>
+        </is>
+      </c>
+      <c r="BZ50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_8_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-buds3-pro-wireless-earbud-headphones-white_2FJ3ZYG2KR7H_2Fsku_2.html</t>
+        </is>
+      </c>
+      <c r="CA50" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="CB50" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="CC50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CD50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="CE50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_1_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CF50" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="CG50" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="CH50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CI50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CJ50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_2_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-ultra-512gb-unlocked-sku-sm-s938uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CK50" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="CL50" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="CM50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CN50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CO50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_3_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-flip7_2Fbuy_2Fgalaxy-z-flip7-512gb-unlocked-sku-sm-f766uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CP50" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="CQ50" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="CR50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CS50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa/</t>
+        </is>
+      </c>
+      <c r="CT50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_4_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-s25-ultra_2Fbuy_2Fgalaxy-s25-edge-512gb-unlocked-sku-sm-s937uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="CU50" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="CV50" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="CW50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="CX50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/tablets/galaxy-tab-s11/buy/galaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar/</t>
+        </is>
+      </c>
+      <c r="CY50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_5_https_3A_2F_2Fwww.samsung.com_2Fus_2Ftablets_2Fgalaxy-tab-s11_2Fbuy_2Fgalaxy-tab-s11-512gb-gray-wi-fi-sku-sm-x730nzaixar_2F.html</t>
+        </is>
+      </c>
+      <c r="CZ50" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="DA50" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="DB50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DC50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch-ultra-2025/buy/galaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa/</t>
+        </is>
+      </c>
+      <c r="DD50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_6_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch-ultra-2025_2Fbuy_2Fgalaxy-watch-ultra-47mm-titanium-blue-sku-sm-l705uzb1xaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DE50" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="DF50" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="DG50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DH50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/watches/galaxy-watch8-classic/buy/galaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="DI50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_7_https_3A_2F_2Fwww.samsung.com_2Fus_2Fwatches_2Fgalaxy-watch8-classic_2Fbuy_2Fgalaxy-watch8-classic-46mm-black-lte-sku-sm-l505uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="DJ50" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="DK50" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="DL50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DM50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/mobile-audio/galaxy-buds3-pro/buy/galaxy-buds3-pro-white-sm-r630nzwaxar/</t>
+        </is>
+      </c>
+      <c r="DN50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_8_https_3A_2F_2Fwww.samsung.com_2Fus_2Fmobile-audio_2Fgalaxy-buds3-pro_2Fbuy_2Fgalaxy-buds3-pro-white-sm-r630nzwaxar_2F.html</t>
+        </is>
+      </c>
+      <c r="DO50" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="DP50" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="DQ50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DR50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZYWLL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DS50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_9_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZYWLL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DT50" t="inlineStr">
+        <is>
+          <t>$1,999..99</t>
+        </is>
+      </c>
+      <c r="DU50" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="DV50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="DW50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FQN1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="DX50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_10_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K3FQN1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="DY50" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="DZ50" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="EA50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EB50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JZXMQ7/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EC50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_11_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JZXMQ7_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ED50" t="inlineStr">
+        <is>
+          <t>$1,809..99</t>
+        </is>
+      </c>
+      <c r="EE50" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="EF50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EG50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Galaxy-Fold7-SM-F966U-Smartphone/dp/B0FK1XVXTB?ref_=ast_sto_dp</t>
+        </is>
+      </c>
+      <c r="EH50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_12_https_3A_2F_2Fwww.amazon.com_2FSamsung-Galaxy-Fold7-SM-F966U-Smartphone_2Fdp_2FB0FK1XVXTB_3Fref__3Dast_sto_dp.html</t>
+        </is>
+      </c>
+      <c r="EI50" t="inlineStr">
+        <is>
+          <t>$1,539..95</t>
+        </is>
+      </c>
+      <c r="EJ50" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="EK50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EL50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K9LFCL/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="EM50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_13_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7K9LFCL_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="EN50" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="EO50" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="EP50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EQ50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7J243YH/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7&amp;th=1</t>
+        </is>
+      </c>
+      <c r="ER50" t="inlineStr">
+        <is>
+          <t>outputs/amazon_14_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7J243YH_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="ES50" t="inlineStr">
+        <is>
+          <t>$2,119..94</t>
+        </is>
+      </c>
+      <c r="ET50" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="EU50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="EV50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-blue-shadow/JJGRF3XK8C</t>
+        </is>
+      </c>
+      <c r="EW50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_9_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-blue-shadow_2FJJGRF3XK8C.html</t>
+        </is>
+      </c>
+      <c r="EX50" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="EY50" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="EZ50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FA50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-jet-black/JJGRF3XKX4</t>
+        </is>
+      </c>
+      <c r="FB50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_10_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-jet-black_2FJJGRF3XKX4.html</t>
+        </is>
+      </c>
+      <c r="FC50" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FD50" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="FE50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FF50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-256gb-unlocked-silver-shadow/JJGRF3XK2Q</t>
+        </is>
+      </c>
+      <c r="FG50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_11_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-256gb-unlocked-silver-shadow_2FJJGRF3XK2Q.html</t>
+        </is>
+      </c>
+      <c r="FH50" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="FI50" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="FJ50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FK50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-1tb-unlocked-jet-black/JJGRF3XK25</t>
+        </is>
+      </c>
+      <c r="FL50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_12_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-1tb-unlocked-jet-black_2FJJGRF3XK25.html</t>
+        </is>
+      </c>
+      <c r="FM50" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="FN50" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="FO50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FP50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-jet-black/JJGRF3XKXR</t>
+        </is>
+      </c>
+      <c r="FQ50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_13_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-jet-black_2FJJGRF3XKXR.html</t>
+        </is>
+      </c>
+      <c r="FR50" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FS50" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="FT50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FU50" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/product/samsung-galaxy-z-fold7-512gb-unlocked-silver-shadow/JJGRF3XK8Y</t>
+        </is>
+      </c>
+      <c r="FV50" t="inlineStr">
+        <is>
+          <t>outputs/bestbuy_14_https_3A_2F_2Fwww.bestbuy.com_2Fproduct_2Fsamsung-galaxy-z-fold7-512gb-unlocked-silver-shadow_2FJJGRF3XK8Y.html</t>
+        </is>
+      </c>
+      <c r="FW50" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="FX50" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="FY50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="FZ50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa/</t>
+        </is>
+      </c>
+      <c r="GA50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_9_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966udbaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GB50" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GC50" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="GD50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GE50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="GF50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_10_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzkaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GG50" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GH50" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="GI50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GJ50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="GK50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_11_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-256gb-unlocked-sku-sm-f966uzsaxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GL50" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GM50" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="GN50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GO50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa/</t>
+        </is>
+      </c>
+      <c r="GP50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_12_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-1tb-unlocked-sku-sm-f966uzkfxaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GQ50" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="GR50" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="GS50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GT50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa/</t>
+        </is>
+      </c>
+      <c r="GU50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_13_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzkexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="GV50" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="GW50" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="GX50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="GY50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa/</t>
+        </is>
+      </c>
+      <c r="GZ50" t="inlineStr">
+        <is>
+          <t>outputs/samsung_14_https_3A_2F_2Fwww.samsung.com_2Fus_2Fsmartphones_2Fgalaxy-z-fold7_2Fbuy_2Fgalaxy-z-fold7-512gb-unlocked-sku-sm-f966uzsexaa_2F.html</t>
+        </is>
+      </c>
+      <c r="HA50" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="HB50" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="HC50" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
@@ -43556,7 +44613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU49"/>
+  <dimension ref="A1:DU50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60677,6 +61734,433 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>01 Jan 2026, 06:42</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>sm-f966udbexaa</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>$1,129..00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>$1,169.99</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>sm-s938uzkexaa</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>SM-S938UZKEXAA</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>$1,019.99</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>sm-f766uzkexaa</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>SM-F766UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>$799..00</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>$1,219.99</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>sm-s937uzkexaa</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>SM-S937UZKEXAA</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>$879..99</t>
+        </is>
+      </c>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>$879.99</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>‎SM-X730NZAYXAR</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>sm-x730nzaixar</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>SM-X730NZAIXAR</t>
+        </is>
+      </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>$649..99</t>
+        </is>
+      </c>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>$549.99</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>$649.99</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr">
+        <is>
+          <t>SM-L705UZBQXAA</t>
+        </is>
+      </c>
+      <c r="AZ50" t="inlineStr">
+        <is>
+          <t>sm-l705uzb1xaa</t>
+        </is>
+      </c>
+      <c r="BA50" t="inlineStr">
+        <is>
+          <t>SM-L705UZB1XAA</t>
+        </is>
+      </c>
+      <c r="BE50" t="inlineStr">
+        <is>
+          <t>$499..99</t>
+        </is>
+      </c>
+      <c r="BF50" t="inlineStr">
+        <is>
+          <t>$399.99</t>
+        </is>
+      </c>
+      <c r="BG50" t="inlineStr">
+        <is>
+          <t>$499.99</t>
+        </is>
+      </c>
+      <c r="BH50" t="inlineStr">
+        <is>
+          <t>SM-L505UZKQXAA</t>
+        </is>
+      </c>
+      <c r="BI50" t="inlineStr">
+        <is>
+          <t>sm-l505uzkaxaa</t>
+        </is>
+      </c>
+      <c r="BJ50" t="inlineStr">
+        <is>
+          <t>SM-L505UZKAXAA</t>
+        </is>
+      </c>
+      <c r="BN50" t="inlineStr">
+        <is>
+          <t>$179..99</t>
+        </is>
+      </c>
+      <c r="BO50" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BP50" t="inlineStr">
+        <is>
+          <t>$179.99</t>
+        </is>
+      </c>
+      <c r="BQ50" t="inlineStr">
+        <is>
+          <t>SM-R630NZWEXAR</t>
+        </is>
+      </c>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>sm-r630nzwaxar</t>
+        </is>
+      </c>
+      <c r="BS50" t="inlineStr">
+        <is>
+          <t>SM-R630NZWAXAR</t>
+        </is>
+      </c>
+      <c r="BW50" t="inlineStr">
+        <is>
+          <t>$1,999..99</t>
+        </is>
+      </c>
+      <c r="BX50" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="BY50" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="BZ50" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CA50" t="inlineStr">
+        <is>
+          <t>sm-f966udbaxaa</t>
+        </is>
+      </c>
+      <c r="CB50" t="inlineStr">
+        <is>
+          <t>SM-F966UDBAXAA</t>
+        </is>
+      </c>
+      <c r="CF50" t="inlineStr">
+        <is>
+          <t>$1,649..00</t>
+        </is>
+      </c>
+      <c r="CG50" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CH50" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CI50" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CJ50" t="inlineStr">
+        <is>
+          <t>sm-f966uzkaxaa</t>
+        </is>
+      </c>
+      <c r="CK50" t="inlineStr">
+        <is>
+          <t>SM-F966UZKAXAA</t>
+        </is>
+      </c>
+      <c r="CO50" t="inlineStr">
+        <is>
+          <t>$1,809..99</t>
+        </is>
+      </c>
+      <c r="CP50" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="CQ50" t="inlineStr">
+        <is>
+          <t>$1,999.99</t>
+        </is>
+      </c>
+      <c r="CR50" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CS50" t="inlineStr">
+        <is>
+          <t>sm-f966uzsaxaa</t>
+        </is>
+      </c>
+      <c r="CT50" t="inlineStr">
+        <is>
+          <t>SM-F966UZSAXAA</t>
+        </is>
+      </c>
+      <c r="CX50" t="inlineStr">
+        <is>
+          <t>$1,539..95</t>
+        </is>
+      </c>
+      <c r="CY50" t="inlineStr">
+        <is>
+          <t>$1,819.99</t>
+        </is>
+      </c>
+      <c r="CZ50" t="inlineStr">
+        <is>
+          <t>$2,419.99</t>
+        </is>
+      </c>
+      <c r="DA50" t="inlineStr">
+        <is>
+          <t>SM-F966U</t>
+        </is>
+      </c>
+      <c r="DB50" t="inlineStr">
+        <is>
+          <t>sm-f966uzkfxaa</t>
+        </is>
+      </c>
+      <c r="DC50" t="inlineStr">
+        <is>
+          <t>SM-F966UZKFXAA</t>
+        </is>
+      </c>
+      <c r="DG50" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="DH50" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DI50" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DJ50" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DK50" t="inlineStr">
+        <is>
+          <t>sm-f966uzkexaa</t>
+        </is>
+      </c>
+      <c r="DL50" t="inlineStr">
+        <is>
+          <t>SM-F966UZKEXAA</t>
+        </is>
+      </c>
+      <c r="DP50" t="inlineStr">
+        <is>
+          <t>$2,119..94</t>
+        </is>
+      </c>
+      <c r="DQ50" t="inlineStr">
+        <is>
+          <t>$1,399.99</t>
+        </is>
+      </c>
+      <c r="DR50" t="inlineStr">
+        <is>
+          <t>$2,119.99</t>
+        </is>
+      </c>
+      <c r="DS50" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+      <c r="DT50" t="inlineStr">
+        <is>
+          <t>sm-f966uzsexaa</t>
+        </is>
+      </c>
+      <c r="DU50" t="inlineStr">
+        <is>
+          <t>SM-F966UZSEXAA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HC50"/>
+  <dimension ref="A1:HC51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44597,6 +44597,1063 @@
         </is>
       </c>
       <c r="HC50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01 Jan 2026, 18:44</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>outputs/amazon_1_https_3A_2F_2Fwww.amazon.com_2FSamsung-Smartphone-Unlocked-Manufacturer-Warranty_2Fdp_2FB0F7JRKGH1_2Fref_3Dsr_1_3_3Fcrid.html</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>$2,119..99</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SM-F966UDBEXAA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>outputs/amazon_2_https_3A_2F_2Fwww.amazon.com_2FSmartphone-Unlocked-Processor-Manufacturer-